--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O260"/>
+  <dimension ref="A1:O264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12642,6 +12642,202 @@
         <v>75.56999999999999</v>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2020-11-12</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2152</v>
+      </c>
+      <c r="C261" t="n">
+        <v>664</v>
+      </c>
+      <c r="D261" t="n">
+        <v>982</v>
+      </c>
+      <c r="E261" t="n">
+        <v>506</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2802</v>
+      </c>
+      <c r="G261" t="n">
+        <v>216</v>
+      </c>
+      <c r="H261" t="n">
+        <v>447</v>
+      </c>
+      <c r="I261" t="n">
+        <v>2139</v>
+      </c>
+      <c r="J261" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="K261" t="n">
+        <v>45.63</v>
+      </c>
+      <c r="L261" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="M261" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="N261" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="O261" t="n">
+        <v>76.34</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2020-11-13</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2141</v>
+      </c>
+      <c r="C262" t="n">
+        <v>689</v>
+      </c>
+      <c r="D262" t="n">
+        <v>949</v>
+      </c>
+      <c r="E262" t="n">
+        <v>503</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2804</v>
+      </c>
+      <c r="G262" t="n">
+        <v>227</v>
+      </c>
+      <c r="H262" t="n">
+        <v>465</v>
+      </c>
+      <c r="I262" t="n">
+        <v>2112</v>
+      </c>
+      <c r="J262" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="K262" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="L262" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="M262" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="N262" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="O262" t="n">
+        <v>75.31999999999999</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2020-11-14</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2157</v>
+      </c>
+      <c r="C263" t="n">
+        <v>729</v>
+      </c>
+      <c r="D263" t="n">
+        <v>879</v>
+      </c>
+      <c r="E263" t="n">
+        <v>549</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2804</v>
+      </c>
+      <c r="G263" t="n">
+        <v>224</v>
+      </c>
+      <c r="H263" t="n">
+        <v>498</v>
+      </c>
+      <c r="I263" t="n">
+        <v>2082</v>
+      </c>
+      <c r="J263" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="K263" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="L263" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="M263" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="N263" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="O263" t="n">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2020-11-15</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2159</v>
+      </c>
+      <c r="C264" t="n">
+        <v>750</v>
+      </c>
+      <c r="D264" t="n">
+        <v>843</v>
+      </c>
+      <c r="E264" t="n">
+        <v>566</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2803</v>
+      </c>
+      <c r="G264" t="n">
+        <v>232</v>
+      </c>
+      <c r="H264" t="n">
+        <v>470</v>
+      </c>
+      <c r="I264" t="n">
+        <v>2101</v>
+      </c>
+      <c r="J264" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="K264" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="L264" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="M264" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="N264" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="O264" t="n">
+        <v>74.95999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O264"/>
+  <dimension ref="A1:O265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12838,6 +12838,55 @@
         <v>74.95999999999999</v>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2020-11-16</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2159</v>
+      </c>
+      <c r="C265" t="n">
+        <v>796</v>
+      </c>
+      <c r="D265" t="n">
+        <v>819</v>
+      </c>
+      <c r="E265" t="n">
+        <v>544</v>
+      </c>
+      <c r="F265" t="n">
+        <v>2803</v>
+      </c>
+      <c r="G265" t="n">
+        <v>246</v>
+      </c>
+      <c r="H265" t="n">
+        <v>461</v>
+      </c>
+      <c r="I265" t="n">
+        <v>2096</v>
+      </c>
+      <c r="J265" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="K265" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="L265" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M265" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="N265" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="O265" t="n">
+        <v>74.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O265"/>
+  <dimension ref="A1:O267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12887,6 +12887,104 @@
         <v>74.78</v>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2020-11-17</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2171</v>
+      </c>
+      <c r="C266" t="n">
+        <v>847</v>
+      </c>
+      <c r="D266" t="n">
+        <v>853</v>
+      </c>
+      <c r="E266" t="n">
+        <v>471</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2801</v>
+      </c>
+      <c r="G266" t="n">
+        <v>262</v>
+      </c>
+      <c r="H266" t="n">
+        <v>502</v>
+      </c>
+      <c r="I266" t="n">
+        <v>2037</v>
+      </c>
+      <c r="J266" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="K266" t="n">
+        <v>39.29</v>
+      </c>
+      <c r="L266" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="M266" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="N266" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="O266" t="n">
+        <v>72.72</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2020-11-18</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2171</v>
+      </c>
+      <c r="C267" t="n">
+        <v>854</v>
+      </c>
+      <c r="D267" t="n">
+        <v>855</v>
+      </c>
+      <c r="E267" t="n">
+        <v>462</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2801</v>
+      </c>
+      <c r="G267" t="n">
+        <v>269</v>
+      </c>
+      <c r="H267" t="n">
+        <v>481</v>
+      </c>
+      <c r="I267" t="n">
+        <v>2051</v>
+      </c>
+      <c r="J267" t="n">
+        <v>39.34</v>
+      </c>
+      <c r="K267" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="L267" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="M267" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="N267" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="O267" t="n">
+        <v>73.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O267"/>
+  <dimension ref="A1:O269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12985,6 +12985,104 @@
         <v>73.22</v>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2020-11-19</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2153</v>
+      </c>
+      <c r="C268" t="n">
+        <v>898</v>
+      </c>
+      <c r="D268" t="n">
+        <v>790</v>
+      </c>
+      <c r="E268" t="n">
+        <v>465</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2801</v>
+      </c>
+      <c r="G268" t="n">
+        <v>278</v>
+      </c>
+      <c r="H268" t="n">
+        <v>479</v>
+      </c>
+      <c r="I268" t="n">
+        <v>2044</v>
+      </c>
+      <c r="J268" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="K268" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="L268" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="M268" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="N268" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="O268" t="n">
+        <v>72.97</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2020-11-20</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2151</v>
+      </c>
+      <c r="C269" t="n">
+        <v>925</v>
+      </c>
+      <c r="D269" t="n">
+        <v>745</v>
+      </c>
+      <c r="E269" t="n">
+        <v>481</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2802</v>
+      </c>
+      <c r="G269" t="n">
+        <v>291</v>
+      </c>
+      <c r="H269" t="n">
+        <v>474</v>
+      </c>
+      <c r="I269" t="n">
+        <v>2037</v>
+      </c>
+      <c r="J269" t="n">
+        <v>43</v>
+      </c>
+      <c r="K269" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="L269" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="M269" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="N269" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="O269" t="n">
+        <v>72.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O269"/>
+  <dimension ref="A1:O270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13083,6 +13083,55 @@
         <v>72.7</v>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2020-11-21</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2147</v>
+      </c>
+      <c r="C270" t="n">
+        <v>878</v>
+      </c>
+      <c r="D270" t="n">
+        <v>767</v>
+      </c>
+      <c r="E270" t="n">
+        <v>502</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2802</v>
+      </c>
+      <c r="G270" t="n">
+        <v>310</v>
+      </c>
+      <c r="H270" t="n">
+        <v>426</v>
+      </c>
+      <c r="I270" t="n">
+        <v>2066</v>
+      </c>
+      <c r="J270" t="n">
+        <v>40.89</v>
+      </c>
+      <c r="K270" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="L270" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="M270" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="N270" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="O270" t="n">
+        <v>73.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O270"/>
+  <dimension ref="A1:O272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13132,6 +13132,104 @@
         <v>73.73</v>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2020-11-22</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2158</v>
+      </c>
+      <c r="C271" t="n">
+        <v>915</v>
+      </c>
+      <c r="D271" t="n">
+        <v>719</v>
+      </c>
+      <c r="E271" t="n">
+        <v>524</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2799</v>
+      </c>
+      <c r="G271" t="n">
+        <v>317</v>
+      </c>
+      <c r="H271" t="n">
+        <v>470</v>
+      </c>
+      <c r="I271" t="n">
+        <v>2012</v>
+      </c>
+      <c r="J271" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="K271" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="L271" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="M271" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="N271" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="O271" t="n">
+        <v>71.88</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2020-11-23</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2156</v>
+      </c>
+      <c r="C272" t="n">
+        <v>909</v>
+      </c>
+      <c r="D272" t="n">
+        <v>722</v>
+      </c>
+      <c r="E272" t="n">
+        <v>525</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2801</v>
+      </c>
+      <c r="G272" t="n">
+        <v>325</v>
+      </c>
+      <c r="H272" t="n">
+        <v>454</v>
+      </c>
+      <c r="I272" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J272" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="K272" t="n">
+        <v>33.49</v>
+      </c>
+      <c r="L272" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="M272" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="N272" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="O272" t="n">
+        <v>72.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O272"/>
+  <dimension ref="A1:O273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13230,6 +13230,55 @@
         <v>72.19</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2020-11-24</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2186</v>
+      </c>
+      <c r="C273" t="n">
+        <v>956</v>
+      </c>
+      <c r="D273" t="n">
+        <v>753</v>
+      </c>
+      <c r="E273" t="n">
+        <v>477</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2806</v>
+      </c>
+      <c r="G273" t="n">
+        <v>326</v>
+      </c>
+      <c r="H273" t="n">
+        <v>465</v>
+      </c>
+      <c r="I273" t="n">
+        <v>2015</v>
+      </c>
+      <c r="J273" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="K273" t="n">
+        <v>34.45</v>
+      </c>
+      <c r="L273" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="M273" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="N273" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="O273" t="n">
+        <v>71.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O273"/>
+  <dimension ref="A1:O275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13279,6 +13279,104 @@
         <v>71.81</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2020-11-25</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2169</v>
+      </c>
+      <c r="C274" t="n">
+        <v>955</v>
+      </c>
+      <c r="D274" t="n">
+        <v>751</v>
+      </c>
+      <c r="E274" t="n">
+        <v>463</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2809</v>
+      </c>
+      <c r="G274" t="n">
+        <v>338</v>
+      </c>
+      <c r="H274" t="n">
+        <v>464</v>
+      </c>
+      <c r="I274" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J274" t="n">
+        <v>44.03</v>
+      </c>
+      <c r="K274" t="n">
+        <v>34.62</v>
+      </c>
+      <c r="L274" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="M274" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="N274" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="O274" t="n">
+        <v>71.45</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2020-11-26</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2171</v>
+      </c>
+      <c r="C275" t="n">
+        <v>946</v>
+      </c>
+      <c r="D275" t="n">
+        <v>721</v>
+      </c>
+      <c r="E275" t="n">
+        <v>504</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2805</v>
+      </c>
+      <c r="G275" t="n">
+        <v>338</v>
+      </c>
+      <c r="H275" t="n">
+        <v>460</v>
+      </c>
+      <c r="I275" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J275" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="K275" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="L275" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="M275" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="N275" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="O275" t="n">
+        <v>71.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O275"/>
+  <dimension ref="A1:O276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13377,6 +13377,55 @@
         <v>71.55</v>
       </c>
     </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2020-11-27</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2175</v>
+      </c>
+      <c r="C276" t="n">
+        <v>938</v>
+      </c>
+      <c r="D276" t="n">
+        <v>695</v>
+      </c>
+      <c r="E276" t="n">
+        <v>542</v>
+      </c>
+      <c r="F276" t="n">
+        <v>2805</v>
+      </c>
+      <c r="G276" t="n">
+        <v>356</v>
+      </c>
+      <c r="H276" t="n">
+        <v>452</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1997</v>
+      </c>
+      <c r="J276" t="n">
+        <v>43.13</v>
+      </c>
+      <c r="K276" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="L276" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="M276" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="N276" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="O276" t="n">
+        <v>71.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O276"/>
+  <dimension ref="A1:O277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13426,6 +13426,55 @@
         <v>71.19</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2020-11-28</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2173</v>
+      </c>
+      <c r="C277" t="n">
+        <v>951</v>
+      </c>
+      <c r="D277" t="n">
+        <v>680</v>
+      </c>
+      <c r="E277" t="n">
+        <v>542</v>
+      </c>
+      <c r="F277" t="n">
+        <v>2802</v>
+      </c>
+      <c r="G277" t="n">
+        <v>355</v>
+      </c>
+      <c r="H277" t="n">
+        <v>459</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1988</v>
+      </c>
+      <c r="J277" t="n">
+        <v>43.76</v>
+      </c>
+      <c r="K277" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="L277" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="M277" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="N277" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="O277" t="n">
+        <v>70.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O277"/>
+  <dimension ref="A1:O278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13475,6 +13475,55 @@
         <v>70.95</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2164</v>
+      </c>
+      <c r="C278" t="n">
+        <v>968</v>
+      </c>
+      <c r="D278" t="n">
+        <v>676</v>
+      </c>
+      <c r="E278" t="n">
+        <v>520</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2802</v>
+      </c>
+      <c r="G278" t="n">
+        <v>389</v>
+      </c>
+      <c r="H278" t="n">
+        <v>441</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J278" t="n">
+        <v>44.73</v>
+      </c>
+      <c r="K278" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="L278" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="M278" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="N278" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="O278" t="n">
+        <v>70.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O278"/>
+  <dimension ref="A1:O279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13524,6 +13524,55 @@
         <v>70.38</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2164</v>
+      </c>
+      <c r="C279" t="n">
+        <v>990</v>
+      </c>
+      <c r="D279" t="n">
+        <v>651</v>
+      </c>
+      <c r="E279" t="n">
+        <v>523</v>
+      </c>
+      <c r="F279" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G279" t="n">
+        <v>386</v>
+      </c>
+      <c r="H279" t="n">
+        <v>426</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1988</v>
+      </c>
+      <c r="J279" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="K279" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="L279" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="M279" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="N279" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="O279" t="n">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O279"/>
+  <dimension ref="A1:O280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13573,6 +13573,55 @@
         <v>71</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2186</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D280" t="n">
+        <v>744</v>
+      </c>
+      <c r="E280" t="n">
+        <v>441</v>
+      </c>
+      <c r="F280" t="n">
+        <v>2802</v>
+      </c>
+      <c r="G280" t="n">
+        <v>407</v>
+      </c>
+      <c r="H280" t="n">
+        <v>457</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1938</v>
+      </c>
+      <c r="J280" t="n">
+        <v>45.79</v>
+      </c>
+      <c r="K280" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="L280" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="M280" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="N280" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="O280" t="n">
+        <v>69.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O280"/>
+  <dimension ref="A1:O283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13622,6 +13622,153 @@
         <v>69.16</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2020-12-02</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2184</v>
+      </c>
+      <c r="C281" t="n">
+        <v>987</v>
+      </c>
+      <c r="D281" t="n">
+        <v>750</v>
+      </c>
+      <c r="E281" t="n">
+        <v>447</v>
+      </c>
+      <c r="F281" t="n">
+        <v>2798</v>
+      </c>
+      <c r="G281" t="n">
+        <v>399</v>
+      </c>
+      <c r="H281" t="n">
+        <v>449</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1950</v>
+      </c>
+      <c r="J281" t="n">
+        <v>45.19</v>
+      </c>
+      <c r="K281" t="n">
+        <v>34.34</v>
+      </c>
+      <c r="L281" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="M281" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="N281" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="O281" t="n">
+        <v>69.69</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2020-12-03</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2185</v>
+      </c>
+      <c r="C282" t="n">
+        <v>955</v>
+      </c>
+      <c r="D282" t="n">
+        <v>783</v>
+      </c>
+      <c r="E282" t="n">
+        <v>447</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2798</v>
+      </c>
+      <c r="G282" t="n">
+        <v>383</v>
+      </c>
+      <c r="H282" t="n">
+        <v>448</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1967</v>
+      </c>
+      <c r="J282" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="K282" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="L282" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="M282" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="N282" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="O282" t="n">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2020-12-04</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2182</v>
+      </c>
+      <c r="C283" t="n">
+        <v>961</v>
+      </c>
+      <c r="D283" t="n">
+        <v>773</v>
+      </c>
+      <c r="E283" t="n">
+        <v>448</v>
+      </c>
+      <c r="F283" t="n">
+        <v>2794</v>
+      </c>
+      <c r="G283" t="n">
+        <v>368</v>
+      </c>
+      <c r="H283" t="n">
+        <v>445</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1981</v>
+      </c>
+      <c r="J283" t="n">
+        <v>44.04</v>
+      </c>
+      <c r="K283" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="L283" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="M283" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="N283" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="O283" t="n">
+        <v>70.90000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O283"/>
+  <dimension ref="A1:O284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13769,6 +13769,55 @@
         <v>70.90000000000001</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2181</v>
+      </c>
+      <c r="C284" t="n">
+        <v>969</v>
+      </c>
+      <c r="D284" t="n">
+        <v>744</v>
+      </c>
+      <c r="E284" t="n">
+        <v>468</v>
+      </c>
+      <c r="F284" t="n">
+        <v>2799</v>
+      </c>
+      <c r="G284" t="n">
+        <v>381</v>
+      </c>
+      <c r="H284" t="n">
+        <v>457</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1961</v>
+      </c>
+      <c r="J284" t="n">
+        <v>44.43</v>
+      </c>
+      <c r="K284" t="n">
+        <v>34.11</v>
+      </c>
+      <c r="L284" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="M284" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="N284" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="O284" t="n">
+        <v>70.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O286"/>
+  <dimension ref="A1:O287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13916,6 +13916,55 @@
         <v>70.56999999999999</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2020-12-08</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2180</v>
+      </c>
+      <c r="C287" t="n">
+        <v>949</v>
+      </c>
+      <c r="D287" t="n">
+        <v>777</v>
+      </c>
+      <c r="E287" t="n">
+        <v>454</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2797</v>
+      </c>
+      <c r="G287" t="n">
+        <v>414</v>
+      </c>
+      <c r="H287" t="n">
+        <v>441</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1942</v>
+      </c>
+      <c r="J287" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="K287" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="L287" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="M287" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="N287" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="O287" t="n">
+        <v>69.43000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O287"/>
+  <dimension ref="A1:O288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13965,6 +13965,55 @@
         <v>69.43000000000001</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2020-12-09</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2178</v>
+      </c>
+      <c r="C288" t="n">
+        <v>949</v>
+      </c>
+      <c r="D288" t="n">
+        <v>782</v>
+      </c>
+      <c r="E288" t="n">
+        <v>447</v>
+      </c>
+      <c r="F288" t="n">
+        <v>2797</v>
+      </c>
+      <c r="G288" t="n">
+        <v>410</v>
+      </c>
+      <c r="H288" t="n">
+        <v>462</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1925</v>
+      </c>
+      <c r="J288" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="K288" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="L288" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="M288" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="N288" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="O288" t="n">
+        <v>68.81999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O288"/>
+  <dimension ref="A1:O289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14014,6 +14014,55 @@
         <v>68.81999999999999</v>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2020-12-10</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2179</v>
+      </c>
+      <c r="C289" t="n">
+        <v>939</v>
+      </c>
+      <c r="D289" t="n">
+        <v>781</v>
+      </c>
+      <c r="E289" t="n">
+        <v>459</v>
+      </c>
+      <c r="F289" t="n">
+        <v>2802</v>
+      </c>
+      <c r="G289" t="n">
+        <v>416</v>
+      </c>
+      <c r="H289" t="n">
+        <v>452</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1934</v>
+      </c>
+      <c r="J289" t="n">
+        <v>43.09</v>
+      </c>
+      <c r="K289" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="L289" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="M289" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="N289" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="O289" t="n">
+        <v>69.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O289"/>
+  <dimension ref="A1:O291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14063,6 +14063,104 @@
         <v>69.02</v>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2170</v>
+      </c>
+      <c r="C290" t="n">
+        <v>914</v>
+      </c>
+      <c r="D290" t="n">
+        <v>772</v>
+      </c>
+      <c r="E290" t="n">
+        <v>484</v>
+      </c>
+      <c r="F290" t="n">
+        <v>2802</v>
+      </c>
+      <c r="G290" t="n">
+        <v>418</v>
+      </c>
+      <c r="H290" t="n">
+        <v>444</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1940</v>
+      </c>
+      <c r="J290" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="K290" t="n">
+        <v>35.58</v>
+      </c>
+      <c r="L290" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="M290" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="N290" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="O290" t="n">
+        <v>69.23999999999999</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2171</v>
+      </c>
+      <c r="C291" t="n">
+        <v>885</v>
+      </c>
+      <c r="D291" t="n">
+        <v>808</v>
+      </c>
+      <c r="E291" t="n">
+        <v>478</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2805</v>
+      </c>
+      <c r="G291" t="n">
+        <v>386</v>
+      </c>
+      <c r="H291" t="n">
+        <v>449</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J291" t="n">
+        <v>40.76</v>
+      </c>
+      <c r="K291" t="n">
+        <v>37.22</v>
+      </c>
+      <c r="L291" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="M291" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="N291" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="O291" t="n">
+        <v>70.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O291"/>
+  <dimension ref="A1:O293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14161,6 +14161,104 @@
         <v>70.23</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2157</v>
+      </c>
+      <c r="C292" t="n">
+        <v>872</v>
+      </c>
+      <c r="D292" t="n">
+        <v>775</v>
+      </c>
+      <c r="E292" t="n">
+        <v>510</v>
+      </c>
+      <c r="F292" t="n">
+        <v>2805</v>
+      </c>
+      <c r="G292" t="n">
+        <v>385</v>
+      </c>
+      <c r="H292" t="n">
+        <v>442</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1978</v>
+      </c>
+      <c r="J292" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="K292" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="L292" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="M292" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="N292" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="O292" t="n">
+        <v>70.52</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2154</v>
+      </c>
+      <c r="C293" t="n">
+        <v>911</v>
+      </c>
+      <c r="D293" t="n">
+        <v>729</v>
+      </c>
+      <c r="E293" t="n">
+        <v>514</v>
+      </c>
+      <c r="F293" t="n">
+        <v>2807</v>
+      </c>
+      <c r="G293" t="n">
+        <v>404</v>
+      </c>
+      <c r="H293" t="n">
+        <v>441</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1962</v>
+      </c>
+      <c r="J293" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="K293" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="L293" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="M293" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="N293" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="O293" t="n">
+        <v>69.90000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O293"/>
+  <dimension ref="A1:O294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14259,6 +14259,55 @@
         <v>69.90000000000001</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2134</v>
+      </c>
+      <c r="C294" t="n">
+        <v>852</v>
+      </c>
+      <c r="D294" t="n">
+        <v>853</v>
+      </c>
+      <c r="E294" t="n">
+        <v>429</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2803</v>
+      </c>
+      <c r="G294" t="n">
+        <v>380</v>
+      </c>
+      <c r="H294" t="n">
+        <v>466</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1957</v>
+      </c>
+      <c r="J294" t="n">
+        <v>39.93</v>
+      </c>
+      <c r="K294" t="n">
+        <v>39.97</v>
+      </c>
+      <c r="L294" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="M294" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="N294" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="O294" t="n">
+        <v>69.81999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t>DATE</t>
   </si>
@@ -941,6 +941,9 @@
   </si>
   <si>
     <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O295"/>
+  <dimension ref="A1:O296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14431,6 +14434,53 @@
         <v>69.86</v>
       </c>
     </row>
+    <row r="296" spans="1:15">
+      <c r="A296" t="s">
+        <v>309</v>
+      </c>
+      <c r="B296">
+        <v>2143</v>
+      </c>
+      <c r="C296">
+        <v>674</v>
+      </c>
+      <c r="D296">
+        <v>1028</v>
+      </c>
+      <c r="E296">
+        <v>441</v>
+      </c>
+      <c r="F296">
+        <v>2801</v>
+      </c>
+      <c r="G296">
+        <v>370</v>
+      </c>
+      <c r="H296">
+        <v>436</v>
+      </c>
+      <c r="I296">
+        <v>1995</v>
+      </c>
+      <c r="J296">
+        <v>31.45</v>
+      </c>
+      <c r="K296">
+        <v>47.97</v>
+      </c>
+      <c r="L296">
+        <v>20.58</v>
+      </c>
+      <c r="M296">
+        <v>13.21</v>
+      </c>
+      <c r="N296">
+        <v>15.57</v>
+      </c>
+      <c r="O296">
+        <v>71.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>DATE</t>
   </si>
@@ -944,6 +944,21 @@
   </si>
   <si>
     <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O296"/>
+  <dimension ref="A1:O301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14481,6 +14496,241 @@
         <v>71.22</v>
       </c>
     </row>
+    <row r="297" spans="1:15">
+      <c r="A297" t="s">
+        <v>310</v>
+      </c>
+      <c r="B297">
+        <v>2150</v>
+      </c>
+      <c r="C297">
+        <v>673</v>
+      </c>
+      <c r="D297">
+        <v>1004</v>
+      </c>
+      <c r="E297">
+        <v>473</v>
+      </c>
+      <c r="F297">
+        <v>2806</v>
+      </c>
+      <c r="G297">
+        <v>358</v>
+      </c>
+      <c r="H297">
+        <v>446</v>
+      </c>
+      <c r="I297">
+        <v>2002</v>
+      </c>
+      <c r="J297">
+        <v>31.3</v>
+      </c>
+      <c r="K297">
+        <v>46.7</v>
+      </c>
+      <c r="L297">
+        <v>22</v>
+      </c>
+      <c r="M297">
+        <v>12.76</v>
+      </c>
+      <c r="N297">
+        <v>15.89</v>
+      </c>
+      <c r="O297">
+        <v>71.34999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
+      <c r="A298" t="s">
+        <v>311</v>
+      </c>
+      <c r="B298">
+        <v>2154</v>
+      </c>
+      <c r="C298">
+        <v>660</v>
+      </c>
+      <c r="D298">
+        <v>986</v>
+      </c>
+      <c r="E298">
+        <v>508</v>
+      </c>
+      <c r="F298">
+        <v>2804</v>
+      </c>
+      <c r="G298">
+        <v>343</v>
+      </c>
+      <c r="H298">
+        <v>468</v>
+      </c>
+      <c r="I298">
+        <v>1993</v>
+      </c>
+      <c r="J298">
+        <v>30.64</v>
+      </c>
+      <c r="K298">
+        <v>45.78</v>
+      </c>
+      <c r="L298">
+        <v>23.58</v>
+      </c>
+      <c r="M298">
+        <v>12.23</v>
+      </c>
+      <c r="N298">
+        <v>16.69</v>
+      </c>
+      <c r="O298">
+        <v>71.08</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15">
+      <c r="A299" t="s">
+        <v>312</v>
+      </c>
+      <c r="B299">
+        <v>2159</v>
+      </c>
+      <c r="C299">
+        <v>665</v>
+      </c>
+      <c r="D299">
+        <v>954</v>
+      </c>
+      <c r="E299">
+        <v>540</v>
+      </c>
+      <c r="F299">
+        <v>2806</v>
+      </c>
+      <c r="G299">
+        <v>345</v>
+      </c>
+      <c r="H299">
+        <v>450</v>
+      </c>
+      <c r="I299">
+        <v>2011</v>
+      </c>
+      <c r="J299">
+        <v>30.8</v>
+      </c>
+      <c r="K299">
+        <v>44.19</v>
+      </c>
+      <c r="L299">
+        <v>25.01</v>
+      </c>
+      <c r="M299">
+        <v>12.3</v>
+      </c>
+      <c r="N299">
+        <v>16.04</v>
+      </c>
+      <c r="O299">
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15">
+      <c r="A300" t="s">
+        <v>313</v>
+      </c>
+      <c r="B300">
+        <v>2145</v>
+      </c>
+      <c r="C300">
+        <v>649</v>
+      </c>
+      <c r="D300">
+        <v>1001</v>
+      </c>
+      <c r="E300">
+        <v>495</v>
+      </c>
+      <c r="F300">
+        <v>2809</v>
+      </c>
+      <c r="G300">
+        <v>356</v>
+      </c>
+      <c r="H300">
+        <v>487</v>
+      </c>
+      <c r="I300">
+        <v>1966</v>
+      </c>
+      <c r="J300">
+        <v>30.26</v>
+      </c>
+      <c r="K300">
+        <v>46.67</v>
+      </c>
+      <c r="L300">
+        <v>23.08</v>
+      </c>
+      <c r="M300">
+        <v>12.67</v>
+      </c>
+      <c r="N300">
+        <v>17.34</v>
+      </c>
+      <c r="O300">
+        <v>69.98999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15">
+      <c r="A301" t="s">
+        <v>314</v>
+      </c>
+      <c r="B301">
+        <v>2125</v>
+      </c>
+      <c r="C301">
+        <v>664</v>
+      </c>
+      <c r="D301">
+        <v>1015</v>
+      </c>
+      <c r="E301">
+        <v>446</v>
+      </c>
+      <c r="F301">
+        <v>2807</v>
+      </c>
+      <c r="G301">
+        <v>364</v>
+      </c>
+      <c r="H301">
+        <v>466</v>
+      </c>
+      <c r="I301">
+        <v>1977</v>
+      </c>
+      <c r="J301">
+        <v>31.25</v>
+      </c>
+      <c r="K301">
+        <v>47.76</v>
+      </c>
+      <c r="L301">
+        <v>20.99</v>
+      </c>
+      <c r="M301">
+        <v>12.97</v>
+      </c>
+      <c r="N301">
+        <v>16.6</v>
+      </c>
+      <c r="O301">
+        <v>70.43000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>DATE</t>
   </si>
@@ -959,6 +959,9 @@
   </si>
   <si>
     <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O301"/>
+  <dimension ref="A1:O302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14731,6 +14734,53 @@
         <v>70.43000000000001</v>
       </c>
     </row>
+    <row r="302" spans="1:15">
+      <c r="A302" t="s">
+        <v>315</v>
+      </c>
+      <c r="B302">
+        <v>2129</v>
+      </c>
+      <c r="C302">
+        <v>633</v>
+      </c>
+      <c r="D302">
+        <v>1021</v>
+      </c>
+      <c r="E302">
+        <v>475</v>
+      </c>
+      <c r="F302">
+        <v>2812</v>
+      </c>
+      <c r="G302">
+        <v>369</v>
+      </c>
+      <c r="H302">
+        <v>471</v>
+      </c>
+      <c r="I302">
+        <v>1972</v>
+      </c>
+      <c r="J302">
+        <v>29.73</v>
+      </c>
+      <c r="K302">
+        <v>47.96</v>
+      </c>
+      <c r="L302">
+        <v>22.31</v>
+      </c>
+      <c r="M302">
+        <v>13.12</v>
+      </c>
+      <c r="N302">
+        <v>16.75</v>
+      </c>
+      <c r="O302">
+        <v>70.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t>DATE</t>
   </si>
@@ -962,6 +962,21 @@
   </si>
   <si>
     <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:O307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14781,6 +14796,241 @@
         <v>70.13</v>
       </c>
     </row>
+    <row r="303" spans="1:15">
+      <c r="A303" t="s">
+        <v>316</v>
+      </c>
+      <c r="B303">
+        <v>2132</v>
+      </c>
+      <c r="C303">
+        <v>659</v>
+      </c>
+      <c r="D303">
+        <v>987</v>
+      </c>
+      <c r="E303">
+        <v>486</v>
+      </c>
+      <c r="F303">
+        <v>2809</v>
+      </c>
+      <c r="G303">
+        <v>366</v>
+      </c>
+      <c r="H303">
+        <v>478</v>
+      </c>
+      <c r="I303">
+        <v>1965</v>
+      </c>
+      <c r="J303">
+        <v>30.91</v>
+      </c>
+      <c r="K303">
+        <v>46.29</v>
+      </c>
+      <c r="L303">
+        <v>22.8</v>
+      </c>
+      <c r="M303">
+        <v>13.03</v>
+      </c>
+      <c r="N303">
+        <v>17.02</v>
+      </c>
+      <c r="O303">
+        <v>69.95</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15">
+      <c r="A304" t="s">
+        <v>317</v>
+      </c>
+      <c r="B304">
+        <v>2133</v>
+      </c>
+      <c r="C304">
+        <v>636</v>
+      </c>
+      <c r="D304">
+        <v>927</v>
+      </c>
+      <c r="E304">
+        <v>570</v>
+      </c>
+      <c r="F304">
+        <v>2804</v>
+      </c>
+      <c r="G304">
+        <v>352</v>
+      </c>
+      <c r="H304">
+        <v>469</v>
+      </c>
+      <c r="I304">
+        <v>1983</v>
+      </c>
+      <c r="J304">
+        <v>29.82</v>
+      </c>
+      <c r="K304">
+        <v>43.46</v>
+      </c>
+      <c r="L304">
+        <v>26.72</v>
+      </c>
+      <c r="M304">
+        <v>12.55</v>
+      </c>
+      <c r="N304">
+        <v>16.73</v>
+      </c>
+      <c r="O304">
+        <v>70.72</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15">
+      <c r="A305" t="s">
+        <v>318</v>
+      </c>
+      <c r="B305">
+        <v>2134</v>
+      </c>
+      <c r="C305">
+        <v>638</v>
+      </c>
+      <c r="D305">
+        <v>908</v>
+      </c>
+      <c r="E305">
+        <v>588</v>
+      </c>
+      <c r="F305">
+        <v>2804</v>
+      </c>
+      <c r="G305">
+        <v>360</v>
+      </c>
+      <c r="H305">
+        <v>476</v>
+      </c>
+      <c r="I305">
+        <v>1968</v>
+      </c>
+      <c r="J305">
+        <v>29.9</v>
+      </c>
+      <c r="K305">
+        <v>42.55</v>
+      </c>
+      <c r="L305">
+        <v>27.55</v>
+      </c>
+      <c r="M305">
+        <v>12.84</v>
+      </c>
+      <c r="N305">
+        <v>16.98</v>
+      </c>
+      <c r="O305">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15">
+      <c r="A306" t="s">
+        <v>319</v>
+      </c>
+      <c r="B306">
+        <v>2136</v>
+      </c>
+      <c r="C306">
+        <v>632</v>
+      </c>
+      <c r="D306">
+        <v>950</v>
+      </c>
+      <c r="E306">
+        <v>554</v>
+      </c>
+      <c r="F306">
+        <v>2801</v>
+      </c>
+      <c r="G306">
+        <v>364</v>
+      </c>
+      <c r="H306">
+        <v>489</v>
+      </c>
+      <c r="I306">
+        <v>1948</v>
+      </c>
+      <c r="J306">
+        <v>29.59</v>
+      </c>
+      <c r="K306">
+        <v>44.48</v>
+      </c>
+      <c r="L306">
+        <v>25.94</v>
+      </c>
+      <c r="M306">
+        <v>13</v>
+      </c>
+      <c r="N306">
+        <v>17.46</v>
+      </c>
+      <c r="O306">
+        <v>69.55</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15">
+      <c r="A307" t="s">
+        <v>320</v>
+      </c>
+      <c r="B307">
+        <v>2137</v>
+      </c>
+      <c r="C307">
+        <v>646</v>
+      </c>
+      <c r="D307">
+        <v>962</v>
+      </c>
+      <c r="E307">
+        <v>529</v>
+      </c>
+      <c r="F307">
+        <v>2802</v>
+      </c>
+      <c r="G307">
+        <v>363</v>
+      </c>
+      <c r="H307">
+        <v>498</v>
+      </c>
+      <c r="I307">
+        <v>1941</v>
+      </c>
+      <c r="J307">
+        <v>30.23</v>
+      </c>
+      <c r="K307">
+        <v>45.02</v>
+      </c>
+      <c r="L307">
+        <v>24.75</v>
+      </c>
+      <c r="M307">
+        <v>12.96</v>
+      </c>
+      <c r="N307">
+        <v>17.77</v>
+      </c>
+      <c r="O307">
+        <v>69.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>DATE</t>
   </si>
@@ -977,6 +977,9 @@
   </si>
   <si>
     <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O307"/>
+  <dimension ref="A1:O308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15031,6 +15034,53 @@
         <v>69.27</v>
       </c>
     </row>
+    <row r="308" spans="1:15">
+      <c r="A308" t="s">
+        <v>321</v>
+      </c>
+      <c r="B308">
+        <v>2150</v>
+      </c>
+      <c r="C308">
+        <v>659</v>
+      </c>
+      <c r="D308">
+        <v>1025</v>
+      </c>
+      <c r="E308">
+        <v>466</v>
+      </c>
+      <c r="F308">
+        <v>2804</v>
+      </c>
+      <c r="G308">
+        <v>365</v>
+      </c>
+      <c r="H308">
+        <v>506</v>
+      </c>
+      <c r="I308">
+        <v>1933</v>
+      </c>
+      <c r="J308">
+        <v>30.65</v>
+      </c>
+      <c r="K308">
+        <v>47.67</v>
+      </c>
+      <c r="L308">
+        <v>21.67</v>
+      </c>
+      <c r="M308">
+        <v>13.02</v>
+      </c>
+      <c r="N308">
+        <v>18.05</v>
+      </c>
+      <c r="O308">
+        <v>68.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t>DATE</t>
   </si>
@@ -980,6 +980,39 @@
   </si>
   <si>
     <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-09</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O308"/>
+  <dimension ref="A1:O319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15081,6 +15114,523 @@
         <v>68.94</v>
       </c>
     </row>
+    <row r="309" spans="1:15">
+      <c r="A309" t="s">
+        <v>322</v>
+      </c>
+      <c r="B309">
+        <v>2142</v>
+      </c>
+      <c r="C309">
+        <v>633</v>
+      </c>
+      <c r="D309">
+        <v>1073</v>
+      </c>
+      <c r="E309">
+        <v>436</v>
+      </c>
+      <c r="F309">
+        <v>2803</v>
+      </c>
+      <c r="G309">
+        <v>353</v>
+      </c>
+      <c r="H309">
+        <v>504</v>
+      </c>
+      <c r="I309">
+        <v>1946</v>
+      </c>
+      <c r="J309">
+        <v>29.55</v>
+      </c>
+      <c r="K309">
+        <v>50.09</v>
+      </c>
+      <c r="L309">
+        <v>20.35</v>
+      </c>
+      <c r="M309">
+        <v>12.59</v>
+      </c>
+      <c r="N309">
+        <v>17.98</v>
+      </c>
+      <c r="O309">
+        <v>69.43000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15">
+      <c r="A310" t="s">
+        <v>323</v>
+      </c>
+      <c r="B310">
+        <v>2142</v>
+      </c>
+      <c r="C310">
+        <v>676</v>
+      </c>
+      <c r="D310">
+        <v>1043</v>
+      </c>
+      <c r="E310">
+        <v>423</v>
+      </c>
+      <c r="F310">
+        <v>2804</v>
+      </c>
+      <c r="G310">
+        <v>348</v>
+      </c>
+      <c r="H310">
+        <v>476</v>
+      </c>
+      <c r="I310">
+        <v>1980</v>
+      </c>
+      <c r="J310">
+        <v>31.56</v>
+      </c>
+      <c r="K310">
+        <v>48.69</v>
+      </c>
+      <c r="L310">
+        <v>19.75</v>
+      </c>
+      <c r="M310">
+        <v>12.41</v>
+      </c>
+      <c r="N310">
+        <v>16.98</v>
+      </c>
+      <c r="O310">
+        <v>70.61</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15">
+      <c r="A311" t="s">
+        <v>324</v>
+      </c>
+      <c r="B311">
+        <v>2141</v>
+      </c>
+      <c r="C311">
+        <v>663</v>
+      </c>
+      <c r="D311">
+        <v>969</v>
+      </c>
+      <c r="E311">
+        <v>509</v>
+      </c>
+      <c r="F311">
+        <v>2803</v>
+      </c>
+      <c r="G311">
+        <v>342</v>
+      </c>
+      <c r="H311">
+        <v>497</v>
+      </c>
+      <c r="I311">
+        <v>1964</v>
+      </c>
+      <c r="J311">
+        <v>30.97</v>
+      </c>
+      <c r="K311">
+        <v>45.26</v>
+      </c>
+      <c r="L311">
+        <v>23.77</v>
+      </c>
+      <c r="M311">
+        <v>12.2</v>
+      </c>
+      <c r="N311">
+        <v>17.73</v>
+      </c>
+      <c r="O311">
+        <v>70.06999999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15">
+      <c r="A312" t="s">
+        <v>325</v>
+      </c>
+      <c r="B312">
+        <v>2141</v>
+      </c>
+      <c r="C312">
+        <v>648</v>
+      </c>
+      <c r="D312">
+        <v>918</v>
+      </c>
+      <c r="E312">
+        <v>575</v>
+      </c>
+      <c r="F312">
+        <v>2801</v>
+      </c>
+      <c r="G312">
+        <v>326</v>
+      </c>
+      <c r="H312">
+        <v>505</v>
+      </c>
+      <c r="I312">
+        <v>1970</v>
+      </c>
+      <c r="J312">
+        <v>30.27</v>
+      </c>
+      <c r="K312">
+        <v>42.88</v>
+      </c>
+      <c r="L312">
+        <v>26.86</v>
+      </c>
+      <c r="M312">
+        <v>11.64</v>
+      </c>
+      <c r="N312">
+        <v>18.03</v>
+      </c>
+      <c r="O312">
+        <v>70.33</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15">
+      <c r="A313" t="s">
+        <v>326</v>
+      </c>
+      <c r="B313">
+        <v>2137</v>
+      </c>
+      <c r="C313">
+        <v>649</v>
+      </c>
+      <c r="D313">
+        <v>933</v>
+      </c>
+      <c r="E313">
+        <v>555</v>
+      </c>
+      <c r="F313">
+        <v>2802</v>
+      </c>
+      <c r="G313">
+        <v>321</v>
+      </c>
+      <c r="H313">
+        <v>505</v>
+      </c>
+      <c r="I313">
+        <v>1976</v>
+      </c>
+      <c r="J313">
+        <v>30.37</v>
+      </c>
+      <c r="K313">
+        <v>43.66</v>
+      </c>
+      <c r="L313">
+        <v>25.97</v>
+      </c>
+      <c r="M313">
+        <v>11.46</v>
+      </c>
+      <c r="N313">
+        <v>18.02</v>
+      </c>
+      <c r="O313">
+        <v>70.52</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15">
+      <c r="A314" t="s">
+        <v>327</v>
+      </c>
+      <c r="B314">
+        <v>2140</v>
+      </c>
+      <c r="C314">
+        <v>591</v>
+      </c>
+      <c r="D314">
+        <v>1027</v>
+      </c>
+      <c r="E314">
+        <v>522</v>
+      </c>
+      <c r="F314">
+        <v>2799</v>
+      </c>
+      <c r="G314">
+        <v>326</v>
+      </c>
+      <c r="H314">
+        <v>503</v>
+      </c>
+      <c r="I314">
+        <v>1970</v>
+      </c>
+      <c r="J314">
+        <v>27.62</v>
+      </c>
+      <c r="K314">
+        <v>47.99</v>
+      </c>
+      <c r="L314">
+        <v>24.39</v>
+      </c>
+      <c r="M314">
+        <v>11.65</v>
+      </c>
+      <c r="N314">
+        <v>17.97</v>
+      </c>
+      <c r="O314">
+        <v>70.38</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15">
+      <c r="A315" t="s">
+        <v>328</v>
+      </c>
+      <c r="B315">
+        <v>2141</v>
+      </c>
+      <c r="C315">
+        <v>586</v>
+      </c>
+      <c r="D315">
+        <v>1071</v>
+      </c>
+      <c r="E315">
+        <v>484</v>
+      </c>
+      <c r="F315">
+        <v>2802</v>
+      </c>
+      <c r="G315">
+        <v>303</v>
+      </c>
+      <c r="H315">
+        <v>520</v>
+      </c>
+      <c r="I315">
+        <v>1979</v>
+      </c>
+      <c r="J315">
+        <v>27.37</v>
+      </c>
+      <c r="K315">
+        <v>50.02</v>
+      </c>
+      <c r="L315">
+        <v>22.61</v>
+      </c>
+      <c r="M315">
+        <v>10.81</v>
+      </c>
+      <c r="N315">
+        <v>18.56</v>
+      </c>
+      <c r="O315">
+        <v>70.63</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15">
+      <c r="A316" t="s">
+        <v>329</v>
+      </c>
+      <c r="B316">
+        <v>2156</v>
+      </c>
+      <c r="C316">
+        <v>593</v>
+      </c>
+      <c r="D316">
+        <v>1108</v>
+      </c>
+      <c r="E316">
+        <v>455</v>
+      </c>
+      <c r="F316">
+        <v>2805</v>
+      </c>
+      <c r="G316">
+        <v>306</v>
+      </c>
+      <c r="H316">
+        <v>503</v>
+      </c>
+      <c r="I316">
+        <v>1996</v>
+      </c>
+      <c r="J316">
+        <v>27.5</v>
+      </c>
+      <c r="K316">
+        <v>51.39</v>
+      </c>
+      <c r="L316">
+        <v>21.1</v>
+      </c>
+      <c r="M316">
+        <v>10.91</v>
+      </c>
+      <c r="N316">
+        <v>17.93</v>
+      </c>
+      <c r="O316">
+        <v>71.16</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15">
+      <c r="A317" t="s">
+        <v>330</v>
+      </c>
+      <c r="B317">
+        <v>2146</v>
+      </c>
+      <c r="C317">
+        <v>584</v>
+      </c>
+      <c r="D317">
+        <v>1068</v>
+      </c>
+      <c r="E317">
+        <v>494</v>
+      </c>
+      <c r="F317">
+        <v>2802</v>
+      </c>
+      <c r="G317">
+        <v>295</v>
+      </c>
+      <c r="H317">
+        <v>494</v>
+      </c>
+      <c r="I317">
+        <v>2013</v>
+      </c>
+      <c r="J317">
+        <v>27.21</v>
+      </c>
+      <c r="K317">
+        <v>49.77</v>
+      </c>
+      <c r="L317">
+        <v>23.02</v>
+      </c>
+      <c r="M317">
+        <v>10.53</v>
+      </c>
+      <c r="N317">
+        <v>17.63</v>
+      </c>
+      <c r="O317">
+        <v>71.84</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15">
+      <c r="A318" t="s">
+        <v>331</v>
+      </c>
+      <c r="B318">
+        <v>2146</v>
+      </c>
+      <c r="C318">
+        <v>579</v>
+      </c>
+      <c r="D318">
+        <v>1114</v>
+      </c>
+      <c r="E318">
+        <v>453</v>
+      </c>
+      <c r="F318">
+        <v>2803</v>
+      </c>
+      <c r="G318">
+        <v>299</v>
+      </c>
+      <c r="H318">
+        <v>500</v>
+      </c>
+      <c r="I318">
+        <v>2004</v>
+      </c>
+      <c r="J318">
+        <v>26.98</v>
+      </c>
+      <c r="K318">
+        <v>51.91</v>
+      </c>
+      <c r="L318">
+        <v>21.11</v>
+      </c>
+      <c r="M318">
+        <v>10.67</v>
+      </c>
+      <c r="N318">
+        <v>17.84</v>
+      </c>
+      <c r="O318">
+        <v>71.48999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15">
+      <c r="A319" t="s">
+        <v>332</v>
+      </c>
+      <c r="B319">
+        <v>2150</v>
+      </c>
+      <c r="C319">
+        <v>556</v>
+      </c>
+      <c r="D319">
+        <v>1082</v>
+      </c>
+      <c r="E319">
+        <v>512</v>
+      </c>
+      <c r="F319">
+        <v>2800</v>
+      </c>
+      <c r="G319">
+        <v>291</v>
+      </c>
+      <c r="H319">
+        <v>469</v>
+      </c>
+      <c r="I319">
+        <v>2040</v>
+      </c>
+      <c r="J319">
+        <v>25.86</v>
+      </c>
+      <c r="K319">
+        <v>50.33</v>
+      </c>
+      <c r="L319">
+        <v>23.81</v>
+      </c>
+      <c r="M319">
+        <v>10.39</v>
+      </c>
+      <c r="N319">
+        <v>16.75</v>
+      </c>
+      <c r="O319">
+        <v>72.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>DATE</t>
   </si>
@@ -1013,6 +1013,9 @@
   </si>
   <si>
     <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O319"/>
+  <dimension ref="A1:O320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15631,6 +15634,53 @@
         <v>72.86</v>
       </c>
     </row>
+    <row r="320" spans="1:15">
+      <c r="A320" t="s">
+        <v>333</v>
+      </c>
+      <c r="B320">
+        <v>2148</v>
+      </c>
+      <c r="C320">
+        <v>568</v>
+      </c>
+      <c r="D320">
+        <v>1005</v>
+      </c>
+      <c r="E320">
+        <v>575</v>
+      </c>
+      <c r="F320">
+        <v>2798</v>
+      </c>
+      <c r="G320">
+        <v>286</v>
+      </c>
+      <c r="H320">
+        <v>483</v>
+      </c>
+      <c r="I320">
+        <v>2029</v>
+      </c>
+      <c r="J320">
+        <v>26.44</v>
+      </c>
+      <c r="K320">
+        <v>46.79</v>
+      </c>
+      <c r="L320">
+        <v>26.77</v>
+      </c>
+      <c r="M320">
+        <v>10.22</v>
+      </c>
+      <c r="N320">
+        <v>17.26</v>
+      </c>
+      <c r="O320">
+        <v>72.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
   <si>
     <t>DATE</t>
   </si>
@@ -1016,6 +1016,15 @@
   </si>
   <si>
     <t>2021-01-10</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O320"/>
+  <dimension ref="A1:O323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15681,6 +15690,147 @@
         <v>72.52</v>
       </c>
     </row>
+    <row r="321" spans="1:15">
+      <c r="A321" t="s">
+        <v>334</v>
+      </c>
+      <c r="B321">
+        <v>2134</v>
+      </c>
+      <c r="C321">
+        <v>553</v>
+      </c>
+      <c r="D321">
+        <v>1019</v>
+      </c>
+      <c r="E321">
+        <v>562</v>
+      </c>
+      <c r="F321">
+        <v>2800</v>
+      </c>
+      <c r="G321">
+        <v>293</v>
+      </c>
+      <c r="H321">
+        <v>459</v>
+      </c>
+      <c r="I321">
+        <v>2048</v>
+      </c>
+      <c r="J321">
+        <v>25.91</v>
+      </c>
+      <c r="K321">
+        <v>47.75</v>
+      </c>
+      <c r="L321">
+        <v>26.34</v>
+      </c>
+      <c r="M321">
+        <v>10.46</v>
+      </c>
+      <c r="N321">
+        <v>16.39</v>
+      </c>
+      <c r="O321">
+        <v>73.14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15">
+      <c r="A322" t="s">
+        <v>335</v>
+      </c>
+      <c r="B322">
+        <v>2140</v>
+      </c>
+      <c r="C322">
+        <v>550</v>
+      </c>
+      <c r="D322">
+        <v>1055</v>
+      </c>
+      <c r="E322">
+        <v>535</v>
+      </c>
+      <c r="F322">
+        <v>2797</v>
+      </c>
+      <c r="G322">
+        <v>284</v>
+      </c>
+      <c r="H322">
+        <v>466</v>
+      </c>
+      <c r="I322">
+        <v>2047</v>
+      </c>
+      <c r="J322">
+        <v>25.7</v>
+      </c>
+      <c r="K322">
+        <v>49.3</v>
+      </c>
+      <c r="L322">
+        <v>25</v>
+      </c>
+      <c r="M322">
+        <v>10.15</v>
+      </c>
+      <c r="N322">
+        <v>16.66</v>
+      </c>
+      <c r="O322">
+        <v>73.19</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15">
+      <c r="A323" t="s">
+        <v>336</v>
+      </c>
+      <c r="B323">
+        <v>2160</v>
+      </c>
+      <c r="C323">
+        <v>550</v>
+      </c>
+      <c r="D323">
+        <v>1065</v>
+      </c>
+      <c r="E323">
+        <v>545</v>
+      </c>
+      <c r="F323">
+        <v>2796</v>
+      </c>
+      <c r="G323">
+        <v>280</v>
+      </c>
+      <c r="H323">
+        <v>471</v>
+      </c>
+      <c r="I323">
+        <v>2045</v>
+      </c>
+      <c r="J323">
+        <v>25.46</v>
+      </c>
+      <c r="K323">
+        <v>49.31</v>
+      </c>
+      <c r="L323">
+        <v>25.23</v>
+      </c>
+      <c r="M323">
+        <v>10.01</v>
+      </c>
+      <c r="N323">
+        <v>16.85</v>
+      </c>
+      <c r="O323">
+        <v>73.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
   <si>
     <t>DATE</t>
   </si>
@@ -1058,6 +1058,27 @@
   </si>
   <si>
     <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O334"/>
+  <dimension ref="A1:O341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16363,6 +16384,335 @@
         <v>75.63</v>
       </c>
     </row>
+    <row r="335" spans="1:15">
+      <c r="A335" t="s">
+        <v>348</v>
+      </c>
+      <c r="B335">
+        <v>2156</v>
+      </c>
+      <c r="C335">
+        <v>459</v>
+      </c>
+      <c r="D335">
+        <v>1025</v>
+      </c>
+      <c r="E335">
+        <v>672</v>
+      </c>
+      <c r="F335">
+        <v>2804</v>
+      </c>
+      <c r="G335">
+        <v>257</v>
+      </c>
+      <c r="H335">
+        <v>444</v>
+      </c>
+      <c r="I335">
+        <v>2103</v>
+      </c>
+      <c r="J335">
+        <v>21.29</v>
+      </c>
+      <c r="K335">
+        <v>47.54</v>
+      </c>
+      <c r="L335">
+        <v>31.17</v>
+      </c>
+      <c r="M335">
+        <v>9.17</v>
+      </c>
+      <c r="N335">
+        <v>15.83</v>
+      </c>
+      <c r="O335">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="A336" t="s">
+        <v>349</v>
+      </c>
+      <c r="B336">
+        <v>2167</v>
+      </c>
+      <c r="C336">
+        <v>449</v>
+      </c>
+      <c r="D336">
+        <v>1000</v>
+      </c>
+      <c r="E336">
+        <v>718</v>
+      </c>
+      <c r="F336">
+        <v>2805</v>
+      </c>
+      <c r="G336">
+        <v>249</v>
+      </c>
+      <c r="H336">
+        <v>437</v>
+      </c>
+      <c r="I336">
+        <v>2119</v>
+      </c>
+      <c r="J336">
+        <v>20.72</v>
+      </c>
+      <c r="K336">
+        <v>46.15</v>
+      </c>
+      <c r="L336">
+        <v>33.13</v>
+      </c>
+      <c r="M336">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="N336">
+        <v>15.58</v>
+      </c>
+      <c r="O336">
+        <v>75.54000000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15">
+      <c r="A337" t="s">
+        <v>350</v>
+      </c>
+      <c r="B337">
+        <v>2170</v>
+      </c>
+      <c r="C337">
+        <v>430</v>
+      </c>
+      <c r="D337">
+        <v>1075</v>
+      </c>
+      <c r="E337">
+        <v>665</v>
+      </c>
+      <c r="F337">
+        <v>2803</v>
+      </c>
+      <c r="G337">
+        <v>242</v>
+      </c>
+      <c r="H337">
+        <v>442</v>
+      </c>
+      <c r="I337">
+        <v>2119</v>
+      </c>
+      <c r="J337">
+        <v>19.82</v>
+      </c>
+      <c r="K337">
+        <v>49.54</v>
+      </c>
+      <c r="L337">
+        <v>30.65</v>
+      </c>
+      <c r="M337">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="N337">
+        <v>15.77</v>
+      </c>
+      <c r="O337">
+        <v>75.59999999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15">
+      <c r="A338" t="s">
+        <v>351</v>
+      </c>
+      <c r="B338">
+        <v>2192</v>
+      </c>
+      <c r="C338">
+        <v>420</v>
+      </c>
+      <c r="D338">
+        <v>1105</v>
+      </c>
+      <c r="E338">
+        <v>667</v>
+      </c>
+      <c r="F338">
+        <v>2801</v>
+      </c>
+      <c r="G338">
+        <v>232</v>
+      </c>
+      <c r="H338">
+        <v>451</v>
+      </c>
+      <c r="I338">
+        <v>2118</v>
+      </c>
+      <c r="J338">
+        <v>19.16</v>
+      </c>
+      <c r="K338">
+        <v>50.41</v>
+      </c>
+      <c r="L338">
+        <v>30.43</v>
+      </c>
+      <c r="M338">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="N338">
+        <v>16.1</v>
+      </c>
+      <c r="O338">
+        <v>75.62</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15">
+      <c r="A339" t="s">
+        <v>352</v>
+      </c>
+      <c r="B339">
+        <v>2174</v>
+      </c>
+      <c r="C339">
+        <v>399</v>
+      </c>
+      <c r="D339">
+        <v>1092</v>
+      </c>
+      <c r="E339">
+        <v>683</v>
+      </c>
+      <c r="F339">
+        <v>2799</v>
+      </c>
+      <c r="G339">
+        <v>219</v>
+      </c>
+      <c r="H339">
+        <v>422</v>
+      </c>
+      <c r="I339">
+        <v>2158</v>
+      </c>
+      <c r="J339">
+        <v>18.35</v>
+      </c>
+      <c r="K339">
+        <v>50.23</v>
+      </c>
+      <c r="L339">
+        <v>31.42</v>
+      </c>
+      <c r="M339">
+        <v>7.82</v>
+      </c>
+      <c r="N339">
+        <v>15.08</v>
+      </c>
+      <c r="O339">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15">
+      <c r="A340" t="s">
+        <v>353</v>
+      </c>
+      <c r="B340">
+        <v>2175</v>
+      </c>
+      <c r="C340">
+        <v>387</v>
+      </c>
+      <c r="D340">
+        <v>1099</v>
+      </c>
+      <c r="E340">
+        <v>689</v>
+      </c>
+      <c r="F340">
+        <v>2798</v>
+      </c>
+      <c r="G340">
+        <v>212</v>
+      </c>
+      <c r="H340">
+        <v>426</v>
+      </c>
+      <c r="I340">
+        <v>2160</v>
+      </c>
+      <c r="J340">
+        <v>17.79</v>
+      </c>
+      <c r="K340">
+        <v>50.53</v>
+      </c>
+      <c r="L340">
+        <v>31.68</v>
+      </c>
+      <c r="M340">
+        <v>7.58</v>
+      </c>
+      <c r="N340">
+        <v>15.23</v>
+      </c>
+      <c r="O340">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15">
+      <c r="A341" t="s">
+        <v>354</v>
+      </c>
+      <c r="B341">
+        <v>2159</v>
+      </c>
+      <c r="C341">
+        <v>372</v>
+      </c>
+      <c r="D341">
+        <v>1061</v>
+      </c>
+      <c r="E341">
+        <v>726</v>
+      </c>
+      <c r="F341">
+        <v>2800</v>
+      </c>
+      <c r="G341">
+        <v>214</v>
+      </c>
+      <c r="H341">
+        <v>423</v>
+      </c>
+      <c r="I341">
+        <v>2163</v>
+      </c>
+      <c r="J341">
+        <v>17.23</v>
+      </c>
+      <c r="K341">
+        <v>49.14</v>
+      </c>
+      <c r="L341">
+        <v>33.63</v>
+      </c>
+      <c r="M341">
+        <v>7.64</v>
+      </c>
+      <c r="N341">
+        <v>15.11</v>
+      </c>
+      <c r="O341">
+        <v>77.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
   <si>
     <t>DATE</t>
   </si>
@@ -1079,6 +1079,12 @@
   </si>
   <si>
     <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O341"/>
+  <dimension ref="A1:O343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16713,6 +16719,100 @@
         <v>77.25</v>
       </c>
     </row>
+    <row r="342" spans="1:15">
+      <c r="A342" t="s">
+        <v>355</v>
+      </c>
+      <c r="B342">
+        <v>2155</v>
+      </c>
+      <c r="C342">
+        <v>374</v>
+      </c>
+      <c r="D342">
+        <v>1041</v>
+      </c>
+      <c r="E342">
+        <v>740</v>
+      </c>
+      <c r="F342">
+        <v>2797</v>
+      </c>
+      <c r="G342">
+        <v>201</v>
+      </c>
+      <c r="H342">
+        <v>433</v>
+      </c>
+      <c r="I342">
+        <v>2163</v>
+      </c>
+      <c r="J342">
+        <v>17.35</v>
+      </c>
+      <c r="K342">
+        <v>48.31</v>
+      </c>
+      <c r="L342">
+        <v>34.34</v>
+      </c>
+      <c r="M342">
+        <v>7.19</v>
+      </c>
+      <c r="N342">
+        <v>15.48</v>
+      </c>
+      <c r="O342">
+        <v>77.33</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15">
+      <c r="A343" t="s">
+        <v>356</v>
+      </c>
+      <c r="B343">
+        <v>2145</v>
+      </c>
+      <c r="C343">
+        <v>347</v>
+      </c>
+      <c r="D343">
+        <v>1043</v>
+      </c>
+      <c r="E343">
+        <v>755</v>
+      </c>
+      <c r="F343">
+        <v>2798</v>
+      </c>
+      <c r="G343">
+        <v>200</v>
+      </c>
+      <c r="H343">
+        <v>427</v>
+      </c>
+      <c r="I343">
+        <v>2171</v>
+      </c>
+      <c r="J343">
+        <v>16.18</v>
+      </c>
+      <c r="K343">
+        <v>48.62</v>
+      </c>
+      <c r="L343">
+        <v>35.2</v>
+      </c>
+      <c r="M343">
+        <v>7.15</v>
+      </c>
+      <c r="N343">
+        <v>15.26</v>
+      </c>
+      <c r="O343">
+        <v>77.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
   <si>
     <t>DATE</t>
   </si>
@@ -1085,6 +1085,12 @@
   </si>
   <si>
     <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O343"/>
+  <dimension ref="A1:O345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16813,6 +16819,100 @@
         <v>77.59</v>
       </c>
     </row>
+    <row r="344" spans="1:15">
+      <c r="A344" t="s">
+        <v>357</v>
+      </c>
+      <c r="B344">
+        <v>2174</v>
+      </c>
+      <c r="C344">
+        <v>344</v>
+      </c>
+      <c r="D344">
+        <v>1158</v>
+      </c>
+      <c r="E344">
+        <v>672</v>
+      </c>
+      <c r="F344">
+        <v>2798</v>
+      </c>
+      <c r="G344">
+        <v>188</v>
+      </c>
+      <c r="H344">
+        <v>464</v>
+      </c>
+      <c r="I344">
+        <v>2146</v>
+      </c>
+      <c r="J344">
+        <v>15.82</v>
+      </c>
+      <c r="K344">
+        <v>53.27</v>
+      </c>
+      <c r="L344">
+        <v>30.91</v>
+      </c>
+      <c r="M344">
+        <v>6.72</v>
+      </c>
+      <c r="N344">
+        <v>16.58</v>
+      </c>
+      <c r="O344">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15">
+      <c r="A345" t="s">
+        <v>358</v>
+      </c>
+      <c r="B345">
+        <v>2177</v>
+      </c>
+      <c r="C345">
+        <v>331</v>
+      </c>
+      <c r="D345">
+        <v>1185</v>
+      </c>
+      <c r="E345">
+        <v>661</v>
+      </c>
+      <c r="F345">
+        <v>2798</v>
+      </c>
+      <c r="G345">
+        <v>175</v>
+      </c>
+      <c r="H345">
+        <v>447</v>
+      </c>
+      <c r="I345">
+        <v>2176</v>
+      </c>
+      <c r="J345">
+        <v>15.2</v>
+      </c>
+      <c r="K345">
+        <v>54.43</v>
+      </c>
+      <c r="L345">
+        <v>30.36</v>
+      </c>
+      <c r="M345">
+        <v>6.25</v>
+      </c>
+      <c r="N345">
+        <v>15.98</v>
+      </c>
+      <c r="O345">
+        <v>77.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>DATE</t>
   </si>
@@ -1091,6 +1091,12 @@
   </si>
   <si>
     <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O345"/>
+  <dimension ref="A1:O347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16913,6 +16919,100 @@
         <v>77.77</v>
       </c>
     </row>
+    <row r="346" spans="1:15">
+      <c r="A346" t="s">
+        <v>359</v>
+      </c>
+      <c r="B346">
+        <v>2181</v>
+      </c>
+      <c r="C346">
+        <v>322</v>
+      </c>
+      <c r="D346">
+        <v>1209</v>
+      </c>
+      <c r="E346">
+        <v>650</v>
+      </c>
+      <c r="F346">
+        <v>2802</v>
+      </c>
+      <c r="G346">
+        <v>165</v>
+      </c>
+      <c r="H346">
+        <v>469</v>
+      </c>
+      <c r="I346">
+        <v>2168</v>
+      </c>
+      <c r="J346">
+        <v>14.76</v>
+      </c>
+      <c r="K346">
+        <v>55.43</v>
+      </c>
+      <c r="L346">
+        <v>29.8</v>
+      </c>
+      <c r="M346">
+        <v>5.89</v>
+      </c>
+      <c r="N346">
+        <v>16.74</v>
+      </c>
+      <c r="O346">
+        <v>77.37</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15">
+      <c r="A347" t="s">
+        <v>360</v>
+      </c>
+      <c r="B347">
+        <v>2177</v>
+      </c>
+      <c r="C347">
+        <v>300</v>
+      </c>
+      <c r="D347">
+        <v>1196</v>
+      </c>
+      <c r="E347">
+        <v>681</v>
+      </c>
+      <c r="F347">
+        <v>2801</v>
+      </c>
+      <c r="G347">
+        <v>163</v>
+      </c>
+      <c r="H347">
+        <v>464</v>
+      </c>
+      <c r="I347">
+        <v>2174</v>
+      </c>
+      <c r="J347">
+        <v>13.78</v>
+      </c>
+      <c r="K347">
+        <v>54.94</v>
+      </c>
+      <c r="L347">
+        <v>31.28</v>
+      </c>
+      <c r="M347">
+        <v>5.82</v>
+      </c>
+      <c r="N347">
+        <v>16.57</v>
+      </c>
+      <c r="O347">
+        <v>77.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>DATE</t>
   </si>
@@ -1097,6 +1097,18 @@
   </si>
   <si>
     <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O347"/>
+  <dimension ref="A1:O351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17013,6 +17025,194 @@
         <v>77.62</v>
       </c>
     </row>
+    <row r="348" spans="1:15">
+      <c r="A348" t="s">
+        <v>361</v>
+      </c>
+      <c r="B348">
+        <v>2175</v>
+      </c>
+      <c r="C348">
+        <v>290</v>
+      </c>
+      <c r="D348">
+        <v>1137</v>
+      </c>
+      <c r="E348">
+        <v>748</v>
+      </c>
+      <c r="F348">
+        <v>2801</v>
+      </c>
+      <c r="G348">
+        <v>153</v>
+      </c>
+      <c r="H348">
+        <v>442</v>
+      </c>
+      <c r="I348">
+        <v>2206</v>
+      </c>
+      <c r="J348">
+        <v>13.33</v>
+      </c>
+      <c r="K348">
+        <v>52.28</v>
+      </c>
+      <c r="L348">
+        <v>34.39</v>
+      </c>
+      <c r="M348">
+        <v>5.46</v>
+      </c>
+      <c r="N348">
+        <v>15.78</v>
+      </c>
+      <c r="O348">
+        <v>78.76000000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15">
+      <c r="A349" t="s">
+        <v>362</v>
+      </c>
+      <c r="B349">
+        <v>2173</v>
+      </c>
+      <c r="C349">
+        <v>285</v>
+      </c>
+      <c r="D349">
+        <v>1079</v>
+      </c>
+      <c r="E349">
+        <v>809</v>
+      </c>
+      <c r="F349">
+        <v>2797</v>
+      </c>
+      <c r="G349">
+        <v>146</v>
+      </c>
+      <c r="H349">
+        <v>422</v>
+      </c>
+      <c r="I349">
+        <v>2229</v>
+      </c>
+      <c r="J349">
+        <v>13.12</v>
+      </c>
+      <c r="K349">
+        <v>49.65</v>
+      </c>
+      <c r="L349">
+        <v>37.23</v>
+      </c>
+      <c r="M349">
+        <v>5.22</v>
+      </c>
+      <c r="N349">
+        <v>15.09</v>
+      </c>
+      <c r="O349">
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15">
+      <c r="A350" t="s">
+        <v>363</v>
+      </c>
+      <c r="B350">
+        <v>2172</v>
+      </c>
+      <c r="C350">
+        <v>274</v>
+      </c>
+      <c r="D350">
+        <v>1081</v>
+      </c>
+      <c r="E350">
+        <v>817</v>
+      </c>
+      <c r="F350">
+        <v>2798</v>
+      </c>
+      <c r="G350">
+        <v>142</v>
+      </c>
+      <c r="H350">
+        <v>430</v>
+      </c>
+      <c r="I350">
+        <v>2226</v>
+      </c>
+      <c r="J350">
+        <v>12.62</v>
+      </c>
+      <c r="K350">
+        <v>49.77</v>
+      </c>
+      <c r="L350">
+        <v>37.62</v>
+      </c>
+      <c r="M350">
+        <v>5.08</v>
+      </c>
+      <c r="N350">
+        <v>15.37</v>
+      </c>
+      <c r="O350">
+        <v>79.56</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15">
+      <c r="A351" t="s">
+        <v>364</v>
+      </c>
+      <c r="B351">
+        <v>2174</v>
+      </c>
+      <c r="C351">
+        <v>262</v>
+      </c>
+      <c r="D351">
+        <v>1141</v>
+      </c>
+      <c r="E351">
+        <v>771</v>
+      </c>
+      <c r="F351">
+        <v>2797</v>
+      </c>
+      <c r="G351">
+        <v>138</v>
+      </c>
+      <c r="H351">
+        <v>463</v>
+      </c>
+      <c r="I351">
+        <v>2196</v>
+      </c>
+      <c r="J351">
+        <v>12.05</v>
+      </c>
+      <c r="K351">
+        <v>52.48</v>
+      </c>
+      <c r="L351">
+        <v>35.46</v>
+      </c>
+      <c r="M351">
+        <v>4.93</v>
+      </c>
+      <c r="N351">
+        <v>16.55</v>
+      </c>
+      <c r="O351">
+        <v>78.51000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
   <si>
     <t>DATE</t>
   </si>
@@ -1109,6 +1109,12 @@
   </si>
   <si>
     <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O351"/>
+  <dimension ref="A1:O353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17213,6 +17219,100 @@
         <v>78.51000000000001</v>
       </c>
     </row>
+    <row r="352" spans="1:15">
+      <c r="A352" t="s">
+        <v>365</v>
+      </c>
+      <c r="B352">
+        <v>2182</v>
+      </c>
+      <c r="C352">
+        <v>239</v>
+      </c>
+      <c r="D352">
+        <v>1162</v>
+      </c>
+      <c r="E352">
+        <v>781</v>
+      </c>
+      <c r="F352">
+        <v>2796</v>
+      </c>
+      <c r="G352">
+        <v>118</v>
+      </c>
+      <c r="H352">
+        <v>458</v>
+      </c>
+      <c r="I352">
+        <v>2220</v>
+      </c>
+      <c r="J352">
+        <v>10.95</v>
+      </c>
+      <c r="K352">
+        <v>53.25</v>
+      </c>
+      <c r="L352">
+        <v>35.79</v>
+      </c>
+      <c r="M352">
+        <v>4.22</v>
+      </c>
+      <c r="N352">
+        <v>16.38</v>
+      </c>
+      <c r="O352">
+        <v>79.40000000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15">
+      <c r="A353" t="s">
+        <v>366</v>
+      </c>
+      <c r="B353">
+        <v>2178</v>
+      </c>
+      <c r="C353">
+        <v>227</v>
+      </c>
+      <c r="D353">
+        <v>1145</v>
+      </c>
+      <c r="E353">
+        <v>806</v>
+      </c>
+      <c r="F353">
+        <v>2797</v>
+      </c>
+      <c r="G353">
+        <v>119</v>
+      </c>
+      <c r="H353">
+        <v>461</v>
+      </c>
+      <c r="I353">
+        <v>2217</v>
+      </c>
+      <c r="J353">
+        <v>10.42</v>
+      </c>
+      <c r="K353">
+        <v>52.57</v>
+      </c>
+      <c r="L353">
+        <v>37.01</v>
+      </c>
+      <c r="M353">
+        <v>4.25</v>
+      </c>
+      <c r="N353">
+        <v>16.48</v>
+      </c>
+      <c r="O353">
+        <v>79.26000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>DATE</t>
   </si>
@@ -1115,6 +1115,12 @@
   </si>
   <si>
     <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>2021-02-12</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O353"/>
+  <dimension ref="A1:O355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17313,6 +17319,100 @@
         <v>79.26000000000001</v>
       </c>
     </row>
+    <row r="354" spans="1:15">
+      <c r="A354" t="s">
+        <v>367</v>
+      </c>
+      <c r="B354">
+        <v>2178</v>
+      </c>
+      <c r="C354">
+        <v>211</v>
+      </c>
+      <c r="D354">
+        <v>1135</v>
+      </c>
+      <c r="E354">
+        <v>832</v>
+      </c>
+      <c r="F354">
+        <v>2800</v>
+      </c>
+      <c r="G354">
+        <v>109</v>
+      </c>
+      <c r="H354">
+        <v>464</v>
+      </c>
+      <c r="I354">
+        <v>2227</v>
+      </c>
+      <c r="J354">
+        <v>9.69</v>
+      </c>
+      <c r="K354">
+        <v>52.11</v>
+      </c>
+      <c r="L354">
+        <v>38.2</v>
+      </c>
+      <c r="M354">
+        <v>3.89</v>
+      </c>
+      <c r="N354">
+        <v>16.57</v>
+      </c>
+      <c r="O354">
+        <v>79.54000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15">
+      <c r="A355" t="s">
+        <v>368</v>
+      </c>
+      <c r="B355">
+        <v>2179</v>
+      </c>
+      <c r="C355">
+        <v>214</v>
+      </c>
+      <c r="D355">
+        <v>1136</v>
+      </c>
+      <c r="E355">
+        <v>829</v>
+      </c>
+      <c r="F355">
+        <v>2798</v>
+      </c>
+      <c r="G355">
+        <v>108</v>
+      </c>
+      <c r="H355">
+        <v>475</v>
+      </c>
+      <c r="I355">
+        <v>2215</v>
+      </c>
+      <c r="J355">
+        <v>9.82</v>
+      </c>
+      <c r="K355">
+        <v>52.13</v>
+      </c>
+      <c r="L355">
+        <v>38.04</v>
+      </c>
+      <c r="M355">
+        <v>3.86</v>
+      </c>
+      <c r="N355">
+        <v>16.98</v>
+      </c>
+      <c r="O355">
+        <v>79.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
   <si>
     <t>DATE</t>
   </si>
@@ -1121,6 +1121,9 @@
   </si>
   <si>
     <t>2021-02-13</t>
+  </si>
+  <si>
+    <t>2021-02-14</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O355"/>
+  <dimension ref="A1:O356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17413,6 +17416,53 @@
         <v>79.16</v>
       </c>
     </row>
+    <row r="356" spans="1:15">
+      <c r="A356" t="s">
+        <v>369</v>
+      </c>
+      <c r="B356">
+        <v>2176</v>
+      </c>
+      <c r="C356">
+        <v>200</v>
+      </c>
+      <c r="D356">
+        <v>1112</v>
+      </c>
+      <c r="E356">
+        <v>864</v>
+      </c>
+      <c r="F356">
+        <v>2798</v>
+      </c>
+      <c r="G356">
+        <v>104</v>
+      </c>
+      <c r="H356">
+        <v>456</v>
+      </c>
+      <c r="I356">
+        <v>2238</v>
+      </c>
+      <c r="J356">
+        <v>9.19</v>
+      </c>
+      <c r="K356">
+        <v>51.1</v>
+      </c>
+      <c r="L356">
+        <v>39.71</v>
+      </c>
+      <c r="M356">
+        <v>3.72</v>
+      </c>
+      <c r="N356">
+        <v>16.3</v>
+      </c>
+      <c r="O356">
+        <v>79.98999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t>DATE</t>
   </si>
@@ -1124,6 +1124,12 @@
   </si>
   <si>
     <t>2021-02-14</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O356"/>
+  <dimension ref="A1:O358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17463,6 +17469,100 @@
         <v>79.98999999999999</v>
       </c>
     </row>
+    <row r="357" spans="1:15">
+      <c r="A357" t="s">
+        <v>370</v>
+      </c>
+      <c r="B357">
+        <v>2161</v>
+      </c>
+      <c r="C357">
+        <v>201</v>
+      </c>
+      <c r="D357">
+        <v>1071</v>
+      </c>
+      <c r="E357">
+        <v>889</v>
+      </c>
+      <c r="F357">
+        <v>2799</v>
+      </c>
+      <c r="G357">
+        <v>107</v>
+      </c>
+      <c r="H357">
+        <v>449</v>
+      </c>
+      <c r="I357">
+        <v>2243</v>
+      </c>
+      <c r="J357">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K357">
+        <v>49.56</v>
+      </c>
+      <c r="L357">
+        <v>41.14</v>
+      </c>
+      <c r="M357">
+        <v>3.82</v>
+      </c>
+      <c r="N357">
+        <v>16.04</v>
+      </c>
+      <c r="O357">
+        <v>80.14</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15">
+      <c r="A358" t="s">
+        <v>371</v>
+      </c>
+      <c r="B358">
+        <v>2155</v>
+      </c>
+      <c r="C358">
+        <v>193</v>
+      </c>
+      <c r="D358">
+        <v>1103</v>
+      </c>
+      <c r="E358">
+        <v>859</v>
+      </c>
+      <c r="F358">
+        <v>2804</v>
+      </c>
+      <c r="G358">
+        <v>98</v>
+      </c>
+      <c r="H358">
+        <v>480</v>
+      </c>
+      <c r="I358">
+        <v>2226</v>
+      </c>
+      <c r="J358">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="K358">
+        <v>51.18</v>
+      </c>
+      <c r="L358">
+        <v>39.86</v>
+      </c>
+      <c r="M358">
+        <v>3.5</v>
+      </c>
+      <c r="N358">
+        <v>17.12</v>
+      </c>
+      <c r="O358">
+        <v>79.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t>DATE</t>
   </si>
@@ -1130,6 +1130,9 @@
   </si>
   <si>
     <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O358"/>
+  <dimension ref="A1:O359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17563,6 +17566,53 @@
         <v>79.39</v>
       </c>
     </row>
+    <row r="359" spans="1:15">
+      <c r="A359" t="s">
+        <v>372</v>
+      </c>
+      <c r="B359">
+        <v>2162</v>
+      </c>
+      <c r="C359">
+        <v>178</v>
+      </c>
+      <c r="D359">
+        <v>1163</v>
+      </c>
+      <c r="E359">
+        <v>821</v>
+      </c>
+      <c r="F359">
+        <v>2799</v>
+      </c>
+      <c r="G359">
+        <v>90</v>
+      </c>
+      <c r="H359">
+        <v>497</v>
+      </c>
+      <c r="I359">
+        <v>2212</v>
+      </c>
+      <c r="J359">
+        <v>8.23</v>
+      </c>
+      <c r="K359">
+        <v>53.79</v>
+      </c>
+      <c r="L359">
+        <v>37.97</v>
+      </c>
+      <c r="M359">
+        <v>3.22</v>
+      </c>
+      <c r="N359">
+        <v>17.76</v>
+      </c>
+      <c r="O359">
+        <v>79.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
   <si>
     <t>DATE</t>
   </si>
@@ -1133,6 +1133,12 @@
   </si>
   <si>
     <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O359"/>
+  <dimension ref="A1:O361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17613,6 +17619,100 @@
         <v>79.03</v>
       </c>
     </row>
+    <row r="360" spans="1:15">
+      <c r="A360" t="s">
+        <v>373</v>
+      </c>
+      <c r="B360">
+        <v>2163</v>
+      </c>
+      <c r="C360">
+        <v>179</v>
+      </c>
+      <c r="D360">
+        <v>1186</v>
+      </c>
+      <c r="E360">
+        <v>798</v>
+      </c>
+      <c r="F360">
+        <v>2799</v>
+      </c>
+      <c r="G360">
+        <v>88</v>
+      </c>
+      <c r="H360">
+        <v>456</v>
+      </c>
+      <c r="I360">
+        <v>2255</v>
+      </c>
+      <c r="J360">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="K360">
+        <v>54.83</v>
+      </c>
+      <c r="L360">
+        <v>36.89</v>
+      </c>
+      <c r="M360">
+        <v>3.14</v>
+      </c>
+      <c r="N360">
+        <v>16.29</v>
+      </c>
+      <c r="O360">
+        <v>80.56</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15">
+      <c r="A361" t="s">
+        <v>374</v>
+      </c>
+      <c r="B361">
+        <v>2165</v>
+      </c>
+      <c r="C361">
+        <v>172</v>
+      </c>
+      <c r="D361">
+        <v>1204</v>
+      </c>
+      <c r="E361">
+        <v>789</v>
+      </c>
+      <c r="F361">
+        <v>2801</v>
+      </c>
+      <c r="G361">
+        <v>78</v>
+      </c>
+      <c r="H361">
+        <v>466</v>
+      </c>
+      <c r="I361">
+        <v>2257</v>
+      </c>
+      <c r="J361">
+        <v>7.94</v>
+      </c>
+      <c r="K361">
+        <v>55.61</v>
+      </c>
+      <c r="L361">
+        <v>36.44</v>
+      </c>
+      <c r="M361">
+        <v>2.78</v>
+      </c>
+      <c r="N361">
+        <v>16.64</v>
+      </c>
+      <c r="O361">
+        <v>80.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
     <t>DATE</t>
   </si>
@@ -1139,6 +1139,15 @@
   </si>
   <si>
     <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O361"/>
+  <dimension ref="A1:O364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17713,6 +17722,147 @@
         <v>80.58</v>
       </c>
     </row>
+    <row r="362" spans="1:15">
+      <c r="A362" t="s">
+        <v>375</v>
+      </c>
+      <c r="B362">
+        <v>2173</v>
+      </c>
+      <c r="C362">
+        <v>161</v>
+      </c>
+      <c r="D362">
+        <v>1219</v>
+      </c>
+      <c r="E362">
+        <v>793</v>
+      </c>
+      <c r="F362">
+        <v>2809</v>
+      </c>
+      <c r="G362">
+        <v>80</v>
+      </c>
+      <c r="H362">
+        <v>442</v>
+      </c>
+      <c r="I362">
+        <v>2287</v>
+      </c>
+      <c r="J362">
+        <v>7.41</v>
+      </c>
+      <c r="K362">
+        <v>56.1</v>
+      </c>
+      <c r="L362">
+        <v>36.49</v>
+      </c>
+      <c r="M362">
+        <v>2.85</v>
+      </c>
+      <c r="N362">
+        <v>15.74</v>
+      </c>
+      <c r="O362">
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15">
+      <c r="A363" t="s">
+        <v>376</v>
+      </c>
+      <c r="B363">
+        <v>2161</v>
+      </c>
+      <c r="C363">
+        <v>163</v>
+      </c>
+      <c r="D363">
+        <v>1165</v>
+      </c>
+      <c r="E363">
+        <v>833</v>
+      </c>
+      <c r="F363">
+        <v>2784</v>
+      </c>
+      <c r="G363">
+        <v>73</v>
+      </c>
+      <c r="H363">
+        <v>464</v>
+      </c>
+      <c r="I363">
+        <v>2247</v>
+      </c>
+      <c r="J363">
+        <v>7.54</v>
+      </c>
+      <c r="K363">
+        <v>53.91</v>
+      </c>
+      <c r="L363">
+        <v>38.55</v>
+      </c>
+      <c r="M363">
+        <v>2.62</v>
+      </c>
+      <c r="N363">
+        <v>16.67</v>
+      </c>
+      <c r="O363">
+        <v>80.70999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15">
+      <c r="A364" t="s">
+        <v>377</v>
+      </c>
+      <c r="B364">
+        <v>2158</v>
+      </c>
+      <c r="C364">
+        <v>159</v>
+      </c>
+      <c r="D364">
+        <v>1164</v>
+      </c>
+      <c r="E364">
+        <v>835</v>
+      </c>
+      <c r="F364">
+        <v>2784</v>
+      </c>
+      <c r="G364">
+        <v>75</v>
+      </c>
+      <c r="H364">
+        <v>482</v>
+      </c>
+      <c r="I364">
+        <v>2227</v>
+      </c>
+      <c r="J364">
+        <v>7.37</v>
+      </c>
+      <c r="K364">
+        <v>53.94</v>
+      </c>
+      <c r="L364">
+        <v>38.69</v>
+      </c>
+      <c r="M364">
+        <v>2.69</v>
+      </c>
+      <c r="N364">
+        <v>17.31</v>
+      </c>
+      <c r="O364">
+        <v>79.98999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
   <si>
     <t>DATE</t>
   </si>
@@ -1148,6 +1148,9 @@
   </si>
   <si>
     <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O364"/>
+  <dimension ref="A1:O365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17863,6 +17866,53 @@
         <v>79.98999999999999</v>
       </c>
     </row>
+    <row r="365" spans="1:15">
+      <c r="A365" t="s">
+        <v>378</v>
+      </c>
+      <c r="B365">
+        <v>2166</v>
+      </c>
+      <c r="C365">
+        <v>158</v>
+      </c>
+      <c r="D365">
+        <v>1218</v>
+      </c>
+      <c r="E365">
+        <v>790</v>
+      </c>
+      <c r="F365">
+        <v>2781</v>
+      </c>
+      <c r="G365">
+        <v>79</v>
+      </c>
+      <c r="H365">
+        <v>471</v>
+      </c>
+      <c r="I365">
+        <v>2231</v>
+      </c>
+      <c r="J365">
+        <v>7.29</v>
+      </c>
+      <c r="K365">
+        <v>56.23</v>
+      </c>
+      <c r="L365">
+        <v>36.47</v>
+      </c>
+      <c r="M365">
+        <v>2.84</v>
+      </c>
+      <c r="N365">
+        <v>16.94</v>
+      </c>
+      <c r="O365">
+        <v>80.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
   <si>
     <t>DATE</t>
   </si>
@@ -1151,6 +1151,9 @@
   </si>
   <si>
     <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O365"/>
+  <dimension ref="A1:O366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17913,6 +17916,53 @@
         <v>80.22</v>
       </c>
     </row>
+    <row r="366" spans="1:15">
+      <c r="A366" t="s">
+        <v>379</v>
+      </c>
+      <c r="B366">
+        <v>2169</v>
+      </c>
+      <c r="C366">
+        <v>147</v>
+      </c>
+      <c r="D366">
+        <v>1245</v>
+      </c>
+      <c r="E366">
+        <v>777</v>
+      </c>
+      <c r="F366">
+        <v>2784</v>
+      </c>
+      <c r="G366">
+        <v>80</v>
+      </c>
+      <c r="H366">
+        <v>482</v>
+      </c>
+      <c r="I366">
+        <v>2222</v>
+      </c>
+      <c r="J366">
+        <v>6.78</v>
+      </c>
+      <c r="K366">
+        <v>57.4</v>
+      </c>
+      <c r="L366">
+        <v>35.82</v>
+      </c>
+      <c r="M366">
+        <v>2.87</v>
+      </c>
+      <c r="N366">
+        <v>17.31</v>
+      </c>
+      <c r="O366">
+        <v>79.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
   <si>
     <t>DATE</t>
   </si>
@@ -1154,6 +1154,33 @@
   </si>
   <si>
     <t>2021-02-24</t>
+  </si>
+  <si>
+    <t>2021-02-25</t>
+  </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O366"/>
+  <dimension ref="A1:O375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17963,6 +17990,429 @@
         <v>79.81</v>
       </c>
     </row>
+    <row r="367" spans="1:15">
+      <c r="A367" t="s">
+        <v>380</v>
+      </c>
+      <c r="B367">
+        <v>2180</v>
+      </c>
+      <c r="C367">
+        <v>151</v>
+      </c>
+      <c r="D367">
+        <v>1327</v>
+      </c>
+      <c r="E367">
+        <v>702</v>
+      </c>
+      <c r="F367">
+        <v>2784</v>
+      </c>
+      <c r="G367">
+        <v>79</v>
+      </c>
+      <c r="H367">
+        <v>482</v>
+      </c>
+      <c r="I367">
+        <v>2223</v>
+      </c>
+      <c r="J367">
+        <v>6.93</v>
+      </c>
+      <c r="K367">
+        <v>60.87</v>
+      </c>
+      <c r="L367">
+        <v>32.2</v>
+      </c>
+      <c r="M367">
+        <v>2.84</v>
+      </c>
+      <c r="N367">
+        <v>17.31</v>
+      </c>
+      <c r="O367">
+        <v>79.84999999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15">
+      <c r="A368" t="s">
+        <v>381</v>
+      </c>
+      <c r="B368">
+        <v>2182</v>
+      </c>
+      <c r="C368">
+        <v>138</v>
+      </c>
+      <c r="D368">
+        <v>1293</v>
+      </c>
+      <c r="E368">
+        <v>751</v>
+      </c>
+      <c r="F368">
+        <v>2784</v>
+      </c>
+      <c r="G368">
+        <v>73</v>
+      </c>
+      <c r="H368">
+        <v>484</v>
+      </c>
+      <c r="I368">
+        <v>2227</v>
+      </c>
+      <c r="J368">
+        <v>6.32</v>
+      </c>
+      <c r="K368">
+        <v>59.26</v>
+      </c>
+      <c r="L368">
+        <v>34.42</v>
+      </c>
+      <c r="M368">
+        <v>2.62</v>
+      </c>
+      <c r="N368">
+        <v>17.39</v>
+      </c>
+      <c r="O368">
+        <v>79.98999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15">
+      <c r="A369" t="s">
+        <v>382</v>
+      </c>
+      <c r="B369">
+        <v>2182</v>
+      </c>
+      <c r="C369">
+        <v>116</v>
+      </c>
+      <c r="D369">
+        <v>1202</v>
+      </c>
+      <c r="E369">
+        <v>864</v>
+      </c>
+      <c r="F369">
+        <v>2785</v>
+      </c>
+      <c r="G369">
+        <v>67</v>
+      </c>
+      <c r="H369">
+        <v>505</v>
+      </c>
+      <c r="I369">
+        <v>2213</v>
+      </c>
+      <c r="J369">
+        <v>5.32</v>
+      </c>
+      <c r="K369">
+        <v>55.09</v>
+      </c>
+      <c r="L369">
+        <v>39.6</v>
+      </c>
+      <c r="M369">
+        <v>2.41</v>
+      </c>
+      <c r="N369">
+        <v>18.13</v>
+      </c>
+      <c r="O369">
+        <v>79.45999999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15">
+      <c r="A370" t="s">
+        <v>383</v>
+      </c>
+      <c r="B370">
+        <v>2175</v>
+      </c>
+      <c r="C370">
+        <v>124</v>
+      </c>
+      <c r="D370">
+        <v>1175</v>
+      </c>
+      <c r="E370">
+        <v>876</v>
+      </c>
+      <c r="F370">
+        <v>2786</v>
+      </c>
+      <c r="G370">
+        <v>66</v>
+      </c>
+      <c r="H370">
+        <v>490</v>
+      </c>
+      <c r="I370">
+        <v>2230</v>
+      </c>
+      <c r="J370">
+        <v>5.7</v>
+      </c>
+      <c r="K370">
+        <v>54.02</v>
+      </c>
+      <c r="L370">
+        <v>40.28</v>
+      </c>
+      <c r="M370">
+        <v>2.37</v>
+      </c>
+      <c r="N370">
+        <v>17.59</v>
+      </c>
+      <c r="O370">
+        <v>80.04000000000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15">
+      <c r="A371" t="s">
+        <v>384</v>
+      </c>
+      <c r="B371">
+        <v>2182</v>
+      </c>
+      <c r="C371">
+        <v>123</v>
+      </c>
+      <c r="D371">
+        <v>1176</v>
+      </c>
+      <c r="E371">
+        <v>883</v>
+      </c>
+      <c r="F371">
+        <v>2787</v>
+      </c>
+      <c r="G371">
+        <v>64</v>
+      </c>
+      <c r="H371">
+        <v>501</v>
+      </c>
+      <c r="I371">
+        <v>2222</v>
+      </c>
+      <c r="J371">
+        <v>5.64</v>
+      </c>
+      <c r="K371">
+        <v>53.9</v>
+      </c>
+      <c r="L371">
+        <v>40.47</v>
+      </c>
+      <c r="M371">
+        <v>2.3</v>
+      </c>
+      <c r="N371">
+        <v>17.98</v>
+      </c>
+      <c r="O371">
+        <v>79.73</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15">
+      <c r="A372" t="s">
+        <v>385</v>
+      </c>
+      <c r="B372">
+        <v>2186</v>
+      </c>
+      <c r="C372">
+        <v>131</v>
+      </c>
+      <c r="D372">
+        <v>1311</v>
+      </c>
+      <c r="E372">
+        <v>744</v>
+      </c>
+      <c r="F372">
+        <v>2786</v>
+      </c>
+      <c r="G372">
+        <v>65</v>
+      </c>
+      <c r="H372">
+        <v>500</v>
+      </c>
+      <c r="I372">
+        <v>2221</v>
+      </c>
+      <c r="J372">
+        <v>5.99</v>
+      </c>
+      <c r="K372">
+        <v>59.97</v>
+      </c>
+      <c r="L372">
+        <v>34.03</v>
+      </c>
+      <c r="M372">
+        <v>2.33</v>
+      </c>
+      <c r="N372">
+        <v>17.95</v>
+      </c>
+      <c r="O372">
+        <v>79.72</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15">
+      <c r="A373" t="s">
+        <v>386</v>
+      </c>
+      <c r="B373">
+        <v>2183</v>
+      </c>
+      <c r="C373">
+        <v>131</v>
+      </c>
+      <c r="D373">
+        <v>1343</v>
+      </c>
+      <c r="E373">
+        <v>709</v>
+      </c>
+      <c r="F373">
+        <v>2785</v>
+      </c>
+      <c r="G373">
+        <v>63</v>
+      </c>
+      <c r="H373">
+        <v>512</v>
+      </c>
+      <c r="I373">
+        <v>2210</v>
+      </c>
+      <c r="J373">
+        <v>6</v>
+      </c>
+      <c r="K373">
+        <v>61.52</v>
+      </c>
+      <c r="L373">
+        <v>32.48</v>
+      </c>
+      <c r="M373">
+        <v>2.26</v>
+      </c>
+      <c r="N373">
+        <v>18.38</v>
+      </c>
+      <c r="O373">
+        <v>79.34999999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15">
+      <c r="A374" t="s">
+        <v>387</v>
+      </c>
+      <c r="B374">
+        <v>2183</v>
+      </c>
+      <c r="C374">
+        <v>123</v>
+      </c>
+      <c r="D374">
+        <v>1314</v>
+      </c>
+      <c r="E374">
+        <v>746</v>
+      </c>
+      <c r="F374">
+        <v>2778</v>
+      </c>
+      <c r="G374">
+        <v>64</v>
+      </c>
+      <c r="H374">
+        <v>484</v>
+      </c>
+      <c r="I374">
+        <v>2230</v>
+      </c>
+      <c r="J374">
+        <v>5.63</v>
+      </c>
+      <c r="K374">
+        <v>60.19</v>
+      </c>
+      <c r="L374">
+        <v>34.17</v>
+      </c>
+      <c r="M374">
+        <v>2.3</v>
+      </c>
+      <c r="N374">
+        <v>17.42</v>
+      </c>
+      <c r="O374">
+        <v>80.27</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15">
+      <c r="A375" t="s">
+        <v>388</v>
+      </c>
+      <c r="B375">
+        <v>2180</v>
+      </c>
+      <c r="C375">
+        <v>118</v>
+      </c>
+      <c r="D375">
+        <v>1340</v>
+      </c>
+      <c r="E375">
+        <v>722</v>
+      </c>
+      <c r="F375">
+        <v>2783</v>
+      </c>
+      <c r="G375">
+        <v>60</v>
+      </c>
+      <c r="H375">
+        <v>487</v>
+      </c>
+      <c r="I375">
+        <v>2236</v>
+      </c>
+      <c r="J375">
+        <v>5.41</v>
+      </c>
+      <c r="K375">
+        <v>61.47</v>
+      </c>
+      <c r="L375">
+        <v>33.12</v>
+      </c>
+      <c r="M375">
+        <v>2.16</v>
+      </c>
+      <c r="N375">
+        <v>17.5</v>
+      </c>
+      <c r="O375">
+        <v>80.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
   <si>
     <t>DATE</t>
   </si>
@@ -1181,6 +1181,24 @@
   </si>
   <si>
     <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>2021-03-06</t>
+  </si>
+  <si>
+    <t>2021-03-07</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-03-11</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O375"/>
+  <dimension ref="A1:O381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18413,6 +18431,288 @@
         <v>80.34</v>
       </c>
     </row>
+    <row r="376" spans="1:15">
+      <c r="A376" t="s">
+        <v>389</v>
+      </c>
+      <c r="B376">
+        <v>2182</v>
+      </c>
+      <c r="C376">
+        <v>104</v>
+      </c>
+      <c r="D376">
+        <v>1318</v>
+      </c>
+      <c r="E376">
+        <v>760</v>
+      </c>
+      <c r="F376">
+        <v>2783</v>
+      </c>
+      <c r="G376">
+        <v>50</v>
+      </c>
+      <c r="H376">
+        <v>482</v>
+      </c>
+      <c r="I376">
+        <v>2251</v>
+      </c>
+      <c r="J376">
+        <v>4.77</v>
+      </c>
+      <c r="K376">
+        <v>60.4</v>
+      </c>
+      <c r="L376">
+        <v>34.83</v>
+      </c>
+      <c r="M376">
+        <v>1.8</v>
+      </c>
+      <c r="N376">
+        <v>17.32</v>
+      </c>
+      <c r="O376">
+        <v>80.88</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15">
+      <c r="A377" t="s">
+        <v>390</v>
+      </c>
+      <c r="B377">
+        <v>2276</v>
+      </c>
+      <c r="C377">
+        <v>105</v>
+      </c>
+      <c r="D377">
+        <v>1266</v>
+      </c>
+      <c r="E377">
+        <v>905</v>
+      </c>
+      <c r="F377">
+        <v>2782</v>
+      </c>
+      <c r="G377">
+        <v>49</v>
+      </c>
+      <c r="H377">
+        <v>475</v>
+      </c>
+      <c r="I377">
+        <v>2258</v>
+      </c>
+      <c r="J377">
+        <v>4.61</v>
+      </c>
+      <c r="K377">
+        <v>55.62</v>
+      </c>
+      <c r="L377">
+        <v>39.76</v>
+      </c>
+      <c r="M377">
+        <v>1.76</v>
+      </c>
+      <c r="N377">
+        <v>17.07</v>
+      </c>
+      <c r="O377">
+        <v>81.16</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15">
+      <c r="A378" t="s">
+        <v>391</v>
+      </c>
+      <c r="B378">
+        <v>2166</v>
+      </c>
+      <c r="C378">
+        <v>100</v>
+      </c>
+      <c r="D378">
+        <v>1189</v>
+      </c>
+      <c r="E378">
+        <v>877</v>
+      </c>
+      <c r="F378">
+        <v>2780</v>
+      </c>
+      <c r="G378">
+        <v>46</v>
+      </c>
+      <c r="H378">
+        <v>472</v>
+      </c>
+      <c r="I378">
+        <v>2262</v>
+      </c>
+      <c r="J378">
+        <v>4.62</v>
+      </c>
+      <c r="K378">
+        <v>54.89</v>
+      </c>
+      <c r="L378">
+        <v>40.49</v>
+      </c>
+      <c r="M378">
+        <v>1.65</v>
+      </c>
+      <c r="N378">
+        <v>16.98</v>
+      </c>
+      <c r="O378">
+        <v>81.37</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15">
+      <c r="A379" t="s">
+        <v>392</v>
+      </c>
+      <c r="B379">
+        <v>2160</v>
+      </c>
+      <c r="C379">
+        <v>100</v>
+      </c>
+      <c r="D379">
+        <v>1315</v>
+      </c>
+      <c r="E379">
+        <v>745</v>
+      </c>
+      <c r="F379">
+        <v>2781</v>
+      </c>
+      <c r="G379">
+        <v>44</v>
+      </c>
+      <c r="H379">
+        <v>502</v>
+      </c>
+      <c r="I379">
+        <v>2235</v>
+      </c>
+      <c r="J379">
+        <v>4.63</v>
+      </c>
+      <c r="K379">
+        <v>60.88</v>
+      </c>
+      <c r="L379">
+        <v>34.49</v>
+      </c>
+      <c r="M379">
+        <v>1.58</v>
+      </c>
+      <c r="N379">
+        <v>18.05</v>
+      </c>
+      <c r="O379">
+        <v>80.37</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15">
+      <c r="A380" t="s">
+        <v>393</v>
+      </c>
+      <c r="B380">
+        <v>2176</v>
+      </c>
+      <c r="C380">
+        <v>98</v>
+      </c>
+      <c r="D380">
+        <v>1370</v>
+      </c>
+      <c r="E380">
+        <v>708</v>
+      </c>
+      <c r="F380">
+        <v>2780</v>
+      </c>
+      <c r="G380">
+        <v>43</v>
+      </c>
+      <c r="H380">
+        <v>500</v>
+      </c>
+      <c r="I380">
+        <v>2237</v>
+      </c>
+      <c r="J380">
+        <v>4.5</v>
+      </c>
+      <c r="K380">
+        <v>62.96</v>
+      </c>
+      <c r="L380">
+        <v>32.54</v>
+      </c>
+      <c r="M380">
+        <v>1.55</v>
+      </c>
+      <c r="N380">
+        <v>17.99</v>
+      </c>
+      <c r="O380">
+        <v>80.47</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15">
+      <c r="A381" t="s">
+        <v>394</v>
+      </c>
+      <c r="B381">
+        <v>2179</v>
+      </c>
+      <c r="C381">
+        <v>104</v>
+      </c>
+      <c r="D381">
+        <v>1345</v>
+      </c>
+      <c r="E381">
+        <v>730</v>
+      </c>
+      <c r="F381">
+        <v>2781</v>
+      </c>
+      <c r="G381">
+        <v>45</v>
+      </c>
+      <c r="H381">
+        <v>490</v>
+      </c>
+      <c r="I381">
+        <v>2246</v>
+      </c>
+      <c r="J381">
+        <v>4.77</v>
+      </c>
+      <c r="K381">
+        <v>61.73</v>
+      </c>
+      <c r="L381">
+        <v>33.5</v>
+      </c>
+      <c r="M381">
+        <v>1.62</v>
+      </c>
+      <c r="N381">
+        <v>17.62</v>
+      </c>
+      <c r="O381">
+        <v>80.76000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>DATE</t>
   </si>
@@ -1199,6 +1199,15 @@
   </si>
   <si>
     <t>2021-03-11</t>
+  </si>
+  <si>
+    <t>2021-03-12</t>
+  </si>
+  <si>
+    <t>2021-03-13</t>
+  </si>
+  <si>
+    <t>2021-03-14</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O381"/>
+  <dimension ref="A1:O384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18713,6 +18722,147 @@
         <v>80.76000000000001</v>
       </c>
     </row>
+    <row r="382" spans="1:15">
+      <c r="A382" t="s">
+        <v>395</v>
+      </c>
+      <c r="B382">
+        <v>2183</v>
+      </c>
+      <c r="C382">
+        <v>99</v>
+      </c>
+      <c r="D382">
+        <v>1330</v>
+      </c>
+      <c r="E382">
+        <v>754</v>
+      </c>
+      <c r="F382">
+        <v>2781</v>
+      </c>
+      <c r="G382">
+        <v>40</v>
+      </c>
+      <c r="H382">
+        <v>471</v>
+      </c>
+      <c r="I382">
+        <v>2270</v>
+      </c>
+      <c r="J382">
+        <v>4.54</v>
+      </c>
+      <c r="K382">
+        <v>60.93</v>
+      </c>
+      <c r="L382">
+        <v>34.54</v>
+      </c>
+      <c r="M382">
+        <v>1.44</v>
+      </c>
+      <c r="N382">
+        <v>16.94</v>
+      </c>
+      <c r="O382">
+        <v>81.63</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15">
+      <c r="A383" t="s">
+        <v>396</v>
+      </c>
+      <c r="B383">
+        <v>2181</v>
+      </c>
+      <c r="C383">
+        <v>100</v>
+      </c>
+      <c r="D383">
+        <v>1277</v>
+      </c>
+      <c r="E383">
+        <v>804</v>
+      </c>
+      <c r="F383">
+        <v>2784</v>
+      </c>
+      <c r="G383">
+        <v>45</v>
+      </c>
+      <c r="H383">
+        <v>455</v>
+      </c>
+      <c r="I383">
+        <v>2284</v>
+      </c>
+      <c r="J383">
+        <v>4.59</v>
+      </c>
+      <c r="K383">
+        <v>58.55</v>
+      </c>
+      <c r="L383">
+        <v>36.86</v>
+      </c>
+      <c r="M383">
+        <v>1.62</v>
+      </c>
+      <c r="N383">
+        <v>16.34</v>
+      </c>
+      <c r="O383">
+        <v>82.04000000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15">
+      <c r="A384" t="s">
+        <v>397</v>
+      </c>
+      <c r="B384">
+        <v>2178</v>
+      </c>
+      <c r="C384">
+        <v>102</v>
+      </c>
+      <c r="D384">
+        <v>1264</v>
+      </c>
+      <c r="E384">
+        <v>812</v>
+      </c>
+      <c r="F384">
+        <v>2784</v>
+      </c>
+      <c r="G384">
+        <v>46</v>
+      </c>
+      <c r="H384">
+        <v>459</v>
+      </c>
+      <c r="I384">
+        <v>2279</v>
+      </c>
+      <c r="J384">
+        <v>4.68</v>
+      </c>
+      <c r="K384">
+        <v>58.03</v>
+      </c>
+      <c r="L384">
+        <v>37.28</v>
+      </c>
+      <c r="M384">
+        <v>1.65</v>
+      </c>
+      <c r="N384">
+        <v>16.49</v>
+      </c>
+      <c r="O384">
+        <v>81.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t>DATE</t>
   </si>
@@ -1208,6 +1208,9 @@
   </si>
   <si>
     <t>2021-03-14</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O384"/>
+  <dimension ref="A1:O385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18863,6 +18866,53 @@
         <v>81.86</v>
       </c>
     </row>
+    <row r="385" spans="1:15">
+      <c r="A385" t="s">
+        <v>398</v>
+      </c>
+      <c r="B385">
+        <v>2185</v>
+      </c>
+      <c r="C385">
+        <v>99</v>
+      </c>
+      <c r="D385">
+        <v>1203</v>
+      </c>
+      <c r="E385">
+        <v>883</v>
+      </c>
+      <c r="F385">
+        <v>2781</v>
+      </c>
+      <c r="G385">
+        <v>42</v>
+      </c>
+      <c r="H385">
+        <v>454</v>
+      </c>
+      <c r="I385">
+        <v>2285</v>
+      </c>
+      <c r="J385">
+        <v>4.53</v>
+      </c>
+      <c r="K385">
+        <v>55.06</v>
+      </c>
+      <c r="L385">
+        <v>40.41</v>
+      </c>
+      <c r="M385">
+        <v>1.51</v>
+      </c>
+      <c r="N385">
+        <v>16.33</v>
+      </c>
+      <c r="O385">
+        <v>82.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
   <si>
     <t>DATE</t>
   </si>
@@ -1211,6 +1211,33 @@
   </si>
   <si>
     <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>2021-03-17</t>
+  </si>
+  <si>
+    <t>2021-03-18</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-03-23</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O385"/>
+  <dimension ref="A1:O394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18913,6 +18940,429 @@
         <v>82.16</v>
       </c>
     </row>
+    <row r="386" spans="1:15">
+      <c r="A386" t="s">
+        <v>399</v>
+      </c>
+      <c r="B386">
+        <v>2182</v>
+      </c>
+      <c r="C386">
+        <v>86</v>
+      </c>
+      <c r="D386">
+        <v>1352</v>
+      </c>
+      <c r="E386">
+        <v>744</v>
+      </c>
+      <c r="F386">
+        <v>2781</v>
+      </c>
+      <c r="G386">
+        <v>37</v>
+      </c>
+      <c r="H386">
+        <v>493</v>
+      </c>
+      <c r="I386">
+        <v>2251</v>
+      </c>
+      <c r="J386">
+        <v>3.94</v>
+      </c>
+      <c r="K386">
+        <v>61.96</v>
+      </c>
+      <c r="L386">
+        <v>34.1</v>
+      </c>
+      <c r="M386">
+        <v>1.33</v>
+      </c>
+      <c r="N386">
+        <v>17.73</v>
+      </c>
+      <c r="O386">
+        <v>80.94</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15">
+      <c r="A387" t="s">
+        <v>400</v>
+      </c>
+      <c r="B387">
+        <v>2188</v>
+      </c>
+      <c r="C387">
+        <v>81</v>
+      </c>
+      <c r="D387">
+        <v>1388</v>
+      </c>
+      <c r="E387">
+        <v>719</v>
+      </c>
+      <c r="F387">
+        <v>2783</v>
+      </c>
+      <c r="G387">
+        <v>36</v>
+      </c>
+      <c r="H387">
+        <v>490</v>
+      </c>
+      <c r="I387">
+        <v>2257</v>
+      </c>
+      <c r="J387">
+        <v>3.7</v>
+      </c>
+      <c r="K387">
+        <v>63.44</v>
+      </c>
+      <c r="L387">
+        <v>32.86</v>
+      </c>
+      <c r="M387">
+        <v>1.29</v>
+      </c>
+      <c r="N387">
+        <v>17.61</v>
+      </c>
+      <c r="O387">
+        <v>81.09999999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15">
+      <c r="A388" t="s">
+        <v>401</v>
+      </c>
+      <c r="B388">
+        <v>2190</v>
+      </c>
+      <c r="C388">
+        <v>79</v>
+      </c>
+      <c r="D388">
+        <v>1359</v>
+      </c>
+      <c r="E388">
+        <v>752</v>
+      </c>
+      <c r="F388">
+        <v>2788</v>
+      </c>
+      <c r="G388">
+        <v>37</v>
+      </c>
+      <c r="H388">
+        <v>459</v>
+      </c>
+      <c r="I388">
+        <v>2292</v>
+      </c>
+      <c r="J388">
+        <v>3.61</v>
+      </c>
+      <c r="K388">
+        <v>62.05</v>
+      </c>
+      <c r="L388">
+        <v>34.34</v>
+      </c>
+      <c r="M388">
+        <v>1.33</v>
+      </c>
+      <c r="N388">
+        <v>16.46</v>
+      </c>
+      <c r="O388">
+        <v>82.20999999999999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15">
+      <c r="A389" t="s">
+        <v>402</v>
+      </c>
+      <c r="B389">
+        <v>2275</v>
+      </c>
+      <c r="C389">
+        <v>81</v>
+      </c>
+      <c r="D389">
+        <v>1373</v>
+      </c>
+      <c r="E389">
+        <v>821</v>
+      </c>
+      <c r="F389">
+        <v>2789</v>
+      </c>
+      <c r="G389">
+        <v>42</v>
+      </c>
+      <c r="H389">
+        <v>489</v>
+      </c>
+      <c r="I389">
+        <v>2258</v>
+      </c>
+      <c r="J389">
+        <v>3.56</v>
+      </c>
+      <c r="K389">
+        <v>60.35</v>
+      </c>
+      <c r="L389">
+        <v>36.09</v>
+      </c>
+      <c r="M389">
+        <v>1.51</v>
+      </c>
+      <c r="N389">
+        <v>17.53</v>
+      </c>
+      <c r="O389">
+        <v>80.95999999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15">
+      <c r="A390" t="s">
+        <v>403</v>
+      </c>
+      <c r="B390">
+        <v>2184</v>
+      </c>
+      <c r="C390">
+        <v>79</v>
+      </c>
+      <c r="D390">
+        <v>1343</v>
+      </c>
+      <c r="E390">
+        <v>762</v>
+      </c>
+      <c r="F390">
+        <v>2787</v>
+      </c>
+      <c r="G390">
+        <v>35</v>
+      </c>
+      <c r="H390">
+        <v>476</v>
+      </c>
+      <c r="I390">
+        <v>2276</v>
+      </c>
+      <c r="J390">
+        <v>3.62</v>
+      </c>
+      <c r="K390">
+        <v>61.49</v>
+      </c>
+      <c r="L390">
+        <v>34.89</v>
+      </c>
+      <c r="M390">
+        <v>1.26</v>
+      </c>
+      <c r="N390">
+        <v>17.08</v>
+      </c>
+      <c r="O390">
+        <v>81.66</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15">
+      <c r="A391" t="s">
+        <v>404</v>
+      </c>
+      <c r="B391">
+        <v>2189</v>
+      </c>
+      <c r="C391">
+        <v>97</v>
+      </c>
+      <c r="D391">
+        <v>1298</v>
+      </c>
+      <c r="E391">
+        <v>794</v>
+      </c>
+      <c r="F391">
+        <v>2793</v>
+      </c>
+      <c r="G391">
+        <v>39</v>
+      </c>
+      <c r="H391">
+        <v>488</v>
+      </c>
+      <c r="I391">
+        <v>2266</v>
+      </c>
+      <c r="J391">
+        <v>4.43</v>
+      </c>
+      <c r="K391">
+        <v>59.3</v>
+      </c>
+      <c r="L391">
+        <v>36.27</v>
+      </c>
+      <c r="M391">
+        <v>1.4</v>
+      </c>
+      <c r="N391">
+        <v>17.47</v>
+      </c>
+      <c r="O391">
+        <v>81.13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15">
+      <c r="A392" t="s">
+        <v>405</v>
+      </c>
+      <c r="B392">
+        <v>2190</v>
+      </c>
+      <c r="C392">
+        <v>103</v>
+      </c>
+      <c r="D392">
+        <v>1244</v>
+      </c>
+      <c r="E392">
+        <v>843</v>
+      </c>
+      <c r="F392">
+        <v>2791</v>
+      </c>
+      <c r="G392">
+        <v>44</v>
+      </c>
+      <c r="H392">
+        <v>470</v>
+      </c>
+      <c r="I392">
+        <v>2277</v>
+      </c>
+      <c r="J392">
+        <v>4.7</v>
+      </c>
+      <c r="K392">
+        <v>56.8</v>
+      </c>
+      <c r="L392">
+        <v>38.49</v>
+      </c>
+      <c r="M392">
+        <v>1.58</v>
+      </c>
+      <c r="N392">
+        <v>16.84</v>
+      </c>
+      <c r="O392">
+        <v>81.58</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15">
+      <c r="A393" t="s">
+        <v>406</v>
+      </c>
+      <c r="B393">
+        <v>2193</v>
+      </c>
+      <c r="C393">
+        <v>94</v>
+      </c>
+      <c r="D393">
+        <v>1371</v>
+      </c>
+      <c r="E393">
+        <v>728</v>
+      </c>
+      <c r="F393">
+        <v>2788</v>
+      </c>
+      <c r="G393">
+        <v>44</v>
+      </c>
+      <c r="H393">
+        <v>463</v>
+      </c>
+      <c r="I393">
+        <v>2281</v>
+      </c>
+      <c r="J393">
+        <v>4.29</v>
+      </c>
+      <c r="K393">
+        <v>62.52</v>
+      </c>
+      <c r="L393">
+        <v>33.2</v>
+      </c>
+      <c r="M393">
+        <v>1.58</v>
+      </c>
+      <c r="N393">
+        <v>16.61</v>
+      </c>
+      <c r="O393">
+        <v>81.81</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15">
+      <c r="A394" t="s">
+        <v>407</v>
+      </c>
+      <c r="B394">
+        <v>2195</v>
+      </c>
+      <c r="C394">
+        <v>111</v>
+      </c>
+      <c r="D394">
+        <v>1358</v>
+      </c>
+      <c r="E394">
+        <v>726</v>
+      </c>
+      <c r="F394">
+        <v>2787</v>
+      </c>
+      <c r="G394">
+        <v>45</v>
+      </c>
+      <c r="H394">
+        <v>480</v>
+      </c>
+      <c r="I394">
+        <v>2262</v>
+      </c>
+      <c r="J394">
+        <v>5.06</v>
+      </c>
+      <c r="K394">
+        <v>61.87</v>
+      </c>
+      <c r="L394">
+        <v>33.08</v>
+      </c>
+      <c r="M394">
+        <v>1.61</v>
+      </c>
+      <c r="N394">
+        <v>17.22</v>
+      </c>
+      <c r="O394">
+        <v>81.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
   <si>
     <t>DATE</t>
   </si>
@@ -1238,6 +1238,9 @@
   </si>
   <si>
     <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O394"/>
+  <dimension ref="A1:O395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19363,6 +19366,53 @@
         <v>81.16</v>
       </c>
     </row>
+    <row r="395" spans="1:15">
+      <c r="A395" t="s">
+        <v>408</v>
+      </c>
+      <c r="B395">
+        <v>2190</v>
+      </c>
+      <c r="C395">
+        <v>109</v>
+      </c>
+      <c r="D395">
+        <v>1331</v>
+      </c>
+      <c r="E395">
+        <v>750</v>
+      </c>
+      <c r="F395">
+        <v>2785</v>
+      </c>
+      <c r="G395">
+        <v>47</v>
+      </c>
+      <c r="H395">
+        <v>468</v>
+      </c>
+      <c r="I395">
+        <v>2270</v>
+      </c>
+      <c r="J395">
+        <v>4.98</v>
+      </c>
+      <c r="K395">
+        <v>60.78</v>
+      </c>
+      <c r="L395">
+        <v>34.25</v>
+      </c>
+      <c r="M395">
+        <v>1.69</v>
+      </c>
+      <c r="N395">
+        <v>16.8</v>
+      </c>
+      <c r="O395">
+        <v>81.51000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
   <si>
     <t>DATE</t>
   </si>
@@ -1241,6 +1241,9 @@
   </si>
   <si>
     <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O395"/>
+  <dimension ref="A1:O396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19413,6 +19416,53 @@
         <v>81.51000000000001</v>
       </c>
     </row>
+    <row r="396" spans="1:15">
+      <c r="A396" t="s">
+        <v>409</v>
+      </c>
+      <c r="B396">
+        <v>2186</v>
+      </c>
+      <c r="C396">
+        <v>114</v>
+      </c>
+      <c r="D396">
+        <v>1354</v>
+      </c>
+      <c r="E396">
+        <v>718</v>
+      </c>
+      <c r="F396">
+        <v>2787</v>
+      </c>
+      <c r="G396">
+        <v>46</v>
+      </c>
+      <c r="H396">
+        <v>482</v>
+      </c>
+      <c r="I396">
+        <v>2259</v>
+      </c>
+      <c r="J396">
+        <v>5.22</v>
+      </c>
+      <c r="K396">
+        <v>61.94</v>
+      </c>
+      <c r="L396">
+        <v>32.85</v>
+      </c>
+      <c r="M396">
+        <v>1.65</v>
+      </c>
+      <c r="N396">
+        <v>17.29</v>
+      </c>
+      <c r="O396">
+        <v>81.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
   <si>
     <t>DATE</t>
   </si>
@@ -1244,6 +1244,9 @@
   </si>
   <si>
     <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021-03-27</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O396"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19463,6 +19466,53 @@
         <v>81.05</v>
       </c>
     </row>
+    <row r="397" spans="1:15">
+      <c r="A397" t="s">
+        <v>410</v>
+      </c>
+      <c r="B397">
+        <v>2178</v>
+      </c>
+      <c r="C397">
+        <v>107</v>
+      </c>
+      <c r="D397">
+        <v>1313</v>
+      </c>
+      <c r="E397">
+        <v>758</v>
+      </c>
+      <c r="F397">
+        <v>2782</v>
+      </c>
+      <c r="G397">
+        <v>48</v>
+      </c>
+      <c r="H397">
+        <v>472</v>
+      </c>
+      <c r="I397">
+        <v>2262</v>
+      </c>
+      <c r="J397">
+        <v>4.91</v>
+      </c>
+      <c r="K397">
+        <v>60.28</v>
+      </c>
+      <c r="L397">
+        <v>34.8</v>
+      </c>
+      <c r="M397">
+        <v>1.73</v>
+      </c>
+      <c r="N397">
+        <v>16.97</v>
+      </c>
+      <c r="O397">
+        <v>81.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
   <si>
     <t>DATE</t>
   </si>
@@ -1247,6 +1247,15 @@
   </si>
   <si>
     <t>2021-03-27</t>
+  </si>
+  <si>
+    <t>2021-03-28</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-03-30</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O397"/>
+  <dimension ref="A1:O400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19513,6 +19522,147 @@
         <v>81.31</v>
       </c>
     </row>
+    <row r="398" spans="1:15">
+      <c r="A398" t="s">
+        <v>411</v>
+      </c>
+      <c r="B398">
+        <v>2179</v>
+      </c>
+      <c r="C398">
+        <v>113</v>
+      </c>
+      <c r="D398">
+        <v>1283</v>
+      </c>
+      <c r="E398">
+        <v>783</v>
+      </c>
+      <c r="F398">
+        <v>2786</v>
+      </c>
+      <c r="G398">
+        <v>55</v>
+      </c>
+      <c r="H398">
+        <v>475</v>
+      </c>
+      <c r="I398">
+        <v>2256</v>
+      </c>
+      <c r="J398">
+        <v>5.19</v>
+      </c>
+      <c r="K398">
+        <v>58.88</v>
+      </c>
+      <c r="L398">
+        <v>35.93</v>
+      </c>
+      <c r="M398">
+        <v>1.97</v>
+      </c>
+      <c r="N398">
+        <v>17.05</v>
+      </c>
+      <c r="O398">
+        <v>80.98</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15">
+      <c r="A399" t="s">
+        <v>412</v>
+      </c>
+      <c r="B399">
+        <v>2181</v>
+      </c>
+      <c r="C399">
+        <v>112</v>
+      </c>
+      <c r="D399">
+        <v>1277</v>
+      </c>
+      <c r="E399">
+        <v>792</v>
+      </c>
+      <c r="F399">
+        <v>2786</v>
+      </c>
+      <c r="G399">
+        <v>50</v>
+      </c>
+      <c r="H399">
+        <v>481</v>
+      </c>
+      <c r="I399">
+        <v>2255</v>
+      </c>
+      <c r="J399">
+        <v>5.14</v>
+      </c>
+      <c r="K399">
+        <v>58.55</v>
+      </c>
+      <c r="L399">
+        <v>36.31</v>
+      </c>
+      <c r="M399">
+        <v>1.79</v>
+      </c>
+      <c r="N399">
+        <v>17.26</v>
+      </c>
+      <c r="O399">
+        <v>80.94</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15">
+      <c r="A400" t="s">
+        <v>413</v>
+      </c>
+      <c r="B400">
+        <v>2184</v>
+      </c>
+      <c r="C400">
+        <v>122</v>
+      </c>
+      <c r="D400">
+        <v>1333</v>
+      </c>
+      <c r="E400">
+        <v>729</v>
+      </c>
+      <c r="F400">
+        <v>2786</v>
+      </c>
+      <c r="G400">
+        <v>49</v>
+      </c>
+      <c r="H400">
+        <v>472</v>
+      </c>
+      <c r="I400">
+        <v>2265</v>
+      </c>
+      <c r="J400">
+        <v>5.59</v>
+      </c>
+      <c r="K400">
+        <v>61.03</v>
+      </c>
+      <c r="L400">
+        <v>33.38</v>
+      </c>
+      <c r="M400">
+        <v>1.76</v>
+      </c>
+      <c r="N400">
+        <v>16.94</v>
+      </c>
+      <c r="O400">
+        <v>81.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
   <si>
     <t>DATE</t>
   </si>
@@ -1256,6 +1256,45 @@
   </si>
   <si>
     <t>2021-03-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>2021-04-03</t>
+  </si>
+  <si>
+    <t>2021-04-04</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>2021-04-11</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O400"/>
+  <dimension ref="A1:O413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19663,6 +19702,617 @@
         <v>81.3</v>
       </c>
     </row>
+    <row r="401" spans="1:15">
+      <c r="A401" t="s">
+        <v>414</v>
+      </c>
+      <c r="B401">
+        <v>2191</v>
+      </c>
+      <c r="C401">
+        <v>121</v>
+      </c>
+      <c r="D401">
+        <v>1374</v>
+      </c>
+      <c r="E401">
+        <v>696</v>
+      </c>
+      <c r="F401">
+        <v>2787</v>
+      </c>
+      <c r="G401">
+        <v>45</v>
+      </c>
+      <c r="H401">
+        <v>479</v>
+      </c>
+      <c r="I401">
+        <v>2263</v>
+      </c>
+      <c r="J401">
+        <v>5.52</v>
+      </c>
+      <c r="K401">
+        <v>62.71</v>
+      </c>
+      <c r="L401">
+        <v>31.77</v>
+      </c>
+      <c r="M401">
+        <v>1.61</v>
+      </c>
+      <c r="N401">
+        <v>17.19</v>
+      </c>
+      <c r="O401">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15">
+      <c r="A402" t="s">
+        <v>415</v>
+      </c>
+      <c r="B402">
+        <v>2182</v>
+      </c>
+      <c r="C402">
+        <v>125</v>
+      </c>
+      <c r="D402">
+        <v>1327</v>
+      </c>
+      <c r="E402">
+        <v>730</v>
+      </c>
+      <c r="F402">
+        <v>2785</v>
+      </c>
+      <c r="G402">
+        <v>43</v>
+      </c>
+      <c r="H402">
+        <v>484</v>
+      </c>
+      <c r="I402">
+        <v>2258</v>
+      </c>
+      <c r="J402">
+        <v>5.73</v>
+      </c>
+      <c r="K402">
+        <v>60.82</v>
+      </c>
+      <c r="L402">
+        <v>33.46</v>
+      </c>
+      <c r="M402">
+        <v>1.54</v>
+      </c>
+      <c r="N402">
+        <v>17.38</v>
+      </c>
+      <c r="O402">
+        <v>81.08</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15">
+      <c r="A403" t="s">
+        <v>416</v>
+      </c>
+      <c r="B403">
+        <v>2181</v>
+      </c>
+      <c r="C403">
+        <v>133</v>
+      </c>
+      <c r="D403">
+        <v>1307</v>
+      </c>
+      <c r="E403">
+        <v>741</v>
+      </c>
+      <c r="F403">
+        <v>2781</v>
+      </c>
+      <c r="G403">
+        <v>45</v>
+      </c>
+      <c r="H403">
+        <v>489</v>
+      </c>
+      <c r="I403">
+        <v>2247</v>
+      </c>
+      <c r="J403">
+        <v>6.1</v>
+      </c>
+      <c r="K403">
+        <v>59.93</v>
+      </c>
+      <c r="L403">
+        <v>33.98</v>
+      </c>
+      <c r="M403">
+        <v>1.62</v>
+      </c>
+      <c r="N403">
+        <v>17.58</v>
+      </c>
+      <c r="O403">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15">
+      <c r="A404" t="s">
+        <v>417</v>
+      </c>
+      <c r="B404">
+        <v>2174</v>
+      </c>
+      <c r="C404">
+        <v>124</v>
+      </c>
+      <c r="D404">
+        <v>1256</v>
+      </c>
+      <c r="E404">
+        <v>794</v>
+      </c>
+      <c r="F404">
+        <v>2780</v>
+      </c>
+      <c r="G404">
+        <v>41</v>
+      </c>
+      <c r="H404">
+        <v>497</v>
+      </c>
+      <c r="I404">
+        <v>2242</v>
+      </c>
+      <c r="J404">
+        <v>5.7</v>
+      </c>
+      <c r="K404">
+        <v>57.77</v>
+      </c>
+      <c r="L404">
+        <v>36.52</v>
+      </c>
+      <c r="M404">
+        <v>1.47</v>
+      </c>
+      <c r="N404">
+        <v>17.88</v>
+      </c>
+      <c r="O404">
+        <v>80.65000000000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15">
+      <c r="A405" t="s">
+        <v>418</v>
+      </c>
+      <c r="B405">
+        <v>2172</v>
+      </c>
+      <c r="C405">
+        <v>123</v>
+      </c>
+      <c r="D405">
+        <v>1233</v>
+      </c>
+      <c r="E405">
+        <v>816</v>
+      </c>
+      <c r="F405">
+        <v>2777</v>
+      </c>
+      <c r="G405">
+        <v>38</v>
+      </c>
+      <c r="H405">
+        <v>484</v>
+      </c>
+      <c r="I405">
+        <v>2255</v>
+      </c>
+      <c r="J405">
+        <v>5.66</v>
+      </c>
+      <c r="K405">
+        <v>56.77</v>
+      </c>
+      <c r="L405">
+        <v>37.57</v>
+      </c>
+      <c r="M405">
+        <v>1.37</v>
+      </c>
+      <c r="N405">
+        <v>17.43</v>
+      </c>
+      <c r="O405">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15">
+      <c r="A406" t="s">
+        <v>419</v>
+      </c>
+      <c r="B406">
+        <v>2179</v>
+      </c>
+      <c r="C406">
+        <v>118</v>
+      </c>
+      <c r="D406">
+        <v>1204</v>
+      </c>
+      <c r="E406">
+        <v>857</v>
+      </c>
+      <c r="F406">
+        <v>2775</v>
+      </c>
+      <c r="G406">
+        <v>49</v>
+      </c>
+      <c r="H406">
+        <v>497</v>
+      </c>
+      <c r="I406">
+        <v>2229</v>
+      </c>
+      <c r="J406">
+        <v>5.42</v>
+      </c>
+      <c r="K406">
+        <v>55.25</v>
+      </c>
+      <c r="L406">
+        <v>39.33</v>
+      </c>
+      <c r="M406">
+        <v>1.77</v>
+      </c>
+      <c r="N406">
+        <v>17.91</v>
+      </c>
+      <c r="O406">
+        <v>80.31999999999999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15">
+      <c r="A407" t="s">
+        <v>420</v>
+      </c>
+      <c r="B407">
+        <v>2176</v>
+      </c>
+      <c r="C407">
+        <v>144</v>
+      </c>
+      <c r="D407">
+        <v>1271</v>
+      </c>
+      <c r="E407">
+        <v>761</v>
+      </c>
+      <c r="F407">
+        <v>2775</v>
+      </c>
+      <c r="G407">
+        <v>62</v>
+      </c>
+      <c r="H407">
+        <v>515</v>
+      </c>
+      <c r="I407">
+        <v>2198</v>
+      </c>
+      <c r="J407">
+        <v>6.62</v>
+      </c>
+      <c r="K407">
+        <v>58.41</v>
+      </c>
+      <c r="L407">
+        <v>34.97</v>
+      </c>
+      <c r="M407">
+        <v>2.23</v>
+      </c>
+      <c r="N407">
+        <v>18.56</v>
+      </c>
+      <c r="O407">
+        <v>79.20999999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15">
+      <c r="A408" t="s">
+        <v>421</v>
+      </c>
+      <c r="B408">
+        <v>2188</v>
+      </c>
+      <c r="C408">
+        <v>144</v>
+      </c>
+      <c r="D408">
+        <v>1364</v>
+      </c>
+      <c r="E408">
+        <v>680</v>
+      </c>
+      <c r="F408">
+        <v>2778</v>
+      </c>
+      <c r="G408">
+        <v>61</v>
+      </c>
+      <c r="H408">
+        <v>525</v>
+      </c>
+      <c r="I408">
+        <v>2192</v>
+      </c>
+      <c r="J408">
+        <v>6.58</v>
+      </c>
+      <c r="K408">
+        <v>62.34</v>
+      </c>
+      <c r="L408">
+        <v>31.08</v>
+      </c>
+      <c r="M408">
+        <v>2.2</v>
+      </c>
+      <c r="N408">
+        <v>18.9</v>
+      </c>
+      <c r="O408">
+        <v>78.91</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15">
+      <c r="A409" t="s">
+        <v>422</v>
+      </c>
+      <c r="B409">
+        <v>2191</v>
+      </c>
+      <c r="C409">
+        <v>156</v>
+      </c>
+      <c r="D409">
+        <v>1343</v>
+      </c>
+      <c r="E409">
+        <v>692</v>
+      </c>
+      <c r="F409">
+        <v>2772</v>
+      </c>
+      <c r="G409">
+        <v>58</v>
+      </c>
+      <c r="H409">
+        <v>508</v>
+      </c>
+      <c r="I409">
+        <v>2206</v>
+      </c>
+      <c r="J409">
+        <v>7.12</v>
+      </c>
+      <c r="K409">
+        <v>61.3</v>
+      </c>
+      <c r="L409">
+        <v>31.58</v>
+      </c>
+      <c r="M409">
+        <v>2.09</v>
+      </c>
+      <c r="N409">
+        <v>18.33</v>
+      </c>
+      <c r="O409">
+        <v>79.58</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15">
+      <c r="A410" t="s">
+        <v>423</v>
+      </c>
+      <c r="B410">
+        <v>2192</v>
+      </c>
+      <c r="C410">
+        <v>160</v>
+      </c>
+      <c r="D410">
+        <v>1334</v>
+      </c>
+      <c r="E410">
+        <v>698</v>
+      </c>
+      <c r="F410">
+        <v>2781</v>
+      </c>
+      <c r="G410">
+        <v>63</v>
+      </c>
+      <c r="H410">
+        <v>498</v>
+      </c>
+      <c r="I410">
+        <v>2220</v>
+      </c>
+      <c r="J410">
+        <v>7.3</v>
+      </c>
+      <c r="K410">
+        <v>60.86</v>
+      </c>
+      <c r="L410">
+        <v>31.84</v>
+      </c>
+      <c r="M410">
+        <v>2.27</v>
+      </c>
+      <c r="N410">
+        <v>17.91</v>
+      </c>
+      <c r="O410">
+        <v>79.83</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15">
+      <c r="A411" t="s">
+        <v>424</v>
+      </c>
+      <c r="B411">
+        <v>2205</v>
+      </c>
+      <c r="C411">
+        <v>171</v>
+      </c>
+      <c r="D411">
+        <v>1335</v>
+      </c>
+      <c r="E411">
+        <v>699</v>
+      </c>
+      <c r="F411">
+        <v>2785</v>
+      </c>
+      <c r="G411">
+        <v>69</v>
+      </c>
+      <c r="H411">
+        <v>488</v>
+      </c>
+      <c r="I411">
+        <v>2228</v>
+      </c>
+      <c r="J411">
+        <v>7.76</v>
+      </c>
+      <c r="K411">
+        <v>60.54</v>
+      </c>
+      <c r="L411">
+        <v>31.7</v>
+      </c>
+      <c r="M411">
+        <v>2.48</v>
+      </c>
+      <c r="N411">
+        <v>17.52</v>
+      </c>
+      <c r="O411">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15">
+      <c r="A412" t="s">
+        <v>425</v>
+      </c>
+      <c r="B412">
+        <v>2269</v>
+      </c>
+      <c r="C412">
+        <v>176</v>
+      </c>
+      <c r="D412">
+        <v>1310</v>
+      </c>
+      <c r="E412">
+        <v>783</v>
+      </c>
+      <c r="F412">
+        <v>2784</v>
+      </c>
+      <c r="G412">
+        <v>74</v>
+      </c>
+      <c r="H412">
+        <v>485</v>
+      </c>
+      <c r="I412">
+        <v>2225</v>
+      </c>
+      <c r="J412">
+        <v>7.76</v>
+      </c>
+      <c r="K412">
+        <v>57.73</v>
+      </c>
+      <c r="L412">
+        <v>34.51</v>
+      </c>
+      <c r="M412">
+        <v>2.66</v>
+      </c>
+      <c r="N412">
+        <v>17.42</v>
+      </c>
+      <c r="O412">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15">
+      <c r="A413" t="s">
+        <v>426</v>
+      </c>
+      <c r="B413">
+        <v>2187</v>
+      </c>
+      <c r="C413">
+        <v>178</v>
+      </c>
+      <c r="D413">
+        <v>1269</v>
+      </c>
+      <c r="E413">
+        <v>740</v>
+      </c>
+      <c r="F413">
+        <v>2781</v>
+      </c>
+      <c r="G413">
+        <v>79</v>
+      </c>
+      <c r="H413">
+        <v>481</v>
+      </c>
+      <c r="I413">
+        <v>2221</v>
+      </c>
+      <c r="J413">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="K413">
+        <v>58.02</v>
+      </c>
+      <c r="L413">
+        <v>33.84</v>
+      </c>
+      <c r="M413">
+        <v>2.84</v>
+      </c>
+      <c r="N413">
+        <v>17.3</v>
+      </c>
+      <c r="O413">
+        <v>79.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
   <si>
     <t>DATE</t>
   </si>
@@ -1295,6 +1295,12 @@
   </si>
   <si>
     <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O413"/>
+  <dimension ref="A1:O415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20313,6 +20319,100 @@
         <v>79.86</v>
       </c>
     </row>
+    <row r="414" spans="1:15">
+      <c r="A414" t="s">
+        <v>427</v>
+      </c>
+      <c r="B414">
+        <v>2198</v>
+      </c>
+      <c r="C414">
+        <v>185</v>
+      </c>
+      <c r="D414">
+        <v>1395</v>
+      </c>
+      <c r="E414">
+        <v>618</v>
+      </c>
+      <c r="F414">
+        <v>2782</v>
+      </c>
+      <c r="G414">
+        <v>71</v>
+      </c>
+      <c r="H414">
+        <v>499</v>
+      </c>
+      <c r="I414">
+        <v>2212</v>
+      </c>
+      <c r="J414">
+        <v>8.42</v>
+      </c>
+      <c r="K414">
+        <v>63.47</v>
+      </c>
+      <c r="L414">
+        <v>28.12</v>
+      </c>
+      <c r="M414">
+        <v>2.55</v>
+      </c>
+      <c r="N414">
+        <v>17.94</v>
+      </c>
+      <c r="O414">
+        <v>79.51000000000001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15">
+      <c r="A415" t="s">
+        <v>428</v>
+      </c>
+      <c r="B415">
+        <v>2191</v>
+      </c>
+      <c r="C415">
+        <v>188</v>
+      </c>
+      <c r="D415">
+        <v>1389</v>
+      </c>
+      <c r="E415">
+        <v>614</v>
+      </c>
+      <c r="F415">
+        <v>2774</v>
+      </c>
+      <c r="G415">
+        <v>71</v>
+      </c>
+      <c r="H415">
+        <v>513</v>
+      </c>
+      <c r="I415">
+        <v>2190</v>
+      </c>
+      <c r="J415">
+        <v>8.58</v>
+      </c>
+      <c r="K415">
+        <v>63.4</v>
+      </c>
+      <c r="L415">
+        <v>28.02</v>
+      </c>
+      <c r="M415">
+        <v>2.56</v>
+      </c>
+      <c r="N415">
+        <v>18.49</v>
+      </c>
+      <c r="O415">
+        <v>78.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_hospital_vent_data.xlsx
+++ b/data/updated/data_indiana_hospital_vent_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
   <si>
     <t>DATE</t>
   </si>
@@ -1301,6 +1301,30 @@
   </si>
   <si>
     <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>2021-04-17</t>
+  </si>
+  <si>
+    <t>2021-04-18</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O415"/>
+  <dimension ref="A1:O423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20413,6 +20437,382 @@
         <v>78.95</v>
       </c>
     </row>
+    <row r="416" spans="1:15">
+      <c r="A416" t="s">
+        <v>429</v>
+      </c>
+      <c r="B416">
+        <v>2196</v>
+      </c>
+      <c r="C416">
+        <v>191</v>
+      </c>
+      <c r="D416">
+        <v>1381</v>
+      </c>
+      <c r="E416">
+        <v>624</v>
+      </c>
+      <c r="F416">
+        <v>2780</v>
+      </c>
+      <c r="G416">
+        <v>69</v>
+      </c>
+      <c r="H416">
+        <v>489</v>
+      </c>
+      <c r="I416">
+        <v>2222</v>
+      </c>
+      <c r="J416">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K416">
+        <v>62.89</v>
+      </c>
+      <c r="L416">
+        <v>28.42</v>
+      </c>
+      <c r="M416">
+        <v>2.48</v>
+      </c>
+      <c r="N416">
+        <v>17.59</v>
+      </c>
+      <c r="O416">
+        <v>79.93000000000001</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15">
+      <c r="A417" t="s">
+        <v>430</v>
+      </c>
+      <c r="B417">
+        <v>2193</v>
+      </c>
+      <c r="C417">
+        <v>193</v>
+      </c>
+      <c r="D417">
+        <v>1361</v>
+      </c>
+      <c r="E417">
+        <v>639</v>
+      </c>
+      <c r="F417">
+        <v>2783</v>
+      </c>
+      <c r="G417">
+        <v>70</v>
+      </c>
+      <c r="H417">
+        <v>503</v>
+      </c>
+      <c r="I417">
+        <v>2210</v>
+      </c>
+      <c r="J417">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K417">
+        <v>62.06</v>
+      </c>
+      <c r="L417">
+        <v>29.14</v>
+      </c>
+      <c r="M417">
+        <v>2.52</v>
+      </c>
+      <c r="N417">
+        <v>18.07</v>
+      </c>
+      <c r="O417">
+        <v>79.41</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15">
+      <c r="A418" t="s">
+        <v>431</v>
+      </c>
+      <c r="B418">
+        <v>2188</v>
+      </c>
+      <c r="C418">
+        <v>201</v>
+      </c>
+      <c r="D418">
+        <v>1366</v>
+      </c>
+      <c r="E418">
+        <v>621</v>
+      </c>
+      <c r="F418">
+        <v>2781</v>
+      </c>
+      <c r="G418">
+        <v>75</v>
+      </c>
+      <c r="H418">
+        <v>483</v>
+      </c>
+      <c r="I418">
+        <v>2223</v>
+      </c>
+      <c r="J418">
+        <v>9.19</v>
+      </c>
+      <c r="K418">
+        <v>62.43</v>
+      </c>
+      <c r="L418">
+        <v>28.38</v>
+      </c>
+      <c r="M418">
+        <v>2.7</v>
+      </c>
+      <c r="N418">
+        <v>17.37</v>
+      </c>
+      <c r="O418">
+        <v>79.94</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15">
+      <c r="A419" t="s">
+        <v>432</v>
+      </c>
+      <c r="B419">
+        <v>2184</v>
+      </c>
+      <c r="C419">
+        <v>200</v>
+      </c>
+      <c r="D419">
+        <v>1266</v>
+      </c>
+      <c r="E419">
+        <v>718</v>
+      </c>
+      <c r="F419">
+        <v>2782</v>
+      </c>
+      <c r="G419">
+        <v>76</v>
+      </c>
+      <c r="H419">
+        <v>489</v>
+      </c>
+      <c r="I419">
+        <v>2217</v>
+      </c>
+      <c r="J419">
+        <v>9.16</v>
+      </c>
+      <c r="K419">
+        <v>57.97</v>
+      </c>
+      <c r="L419">
+        <v>32.88</v>
+      </c>
+      <c r="M419">
+        <v>2.73</v>
+      </c>
+      <c r="N419">
+        <v>17.58</v>
+      </c>
+      <c r="O419">
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15">
+      <c r="A420" t="s">
+        <v>433</v>
+      </c>
+      <c r="B420">
+        <v>2175</v>
+      </c>
+      <c r="C420">
+        <v>188</v>
+      </c>
+      <c r="D420">
+        <v>1284</v>
+      </c>
+      <c r="E420">
+        <v>703</v>
+      </c>
+      <c r="F420">
+        <v>2781</v>
+      </c>
+      <c r="G420">
+        <v>79</v>
+      </c>
+      <c r="H420">
+        <v>475</v>
+      </c>
+      <c r="I420">
+        <v>2227</v>
+      </c>
+      <c r="J420">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="K420">
+        <v>59.03</v>
+      </c>
+      <c r="L420">
+        <v>32.32</v>
+      </c>
+      <c r="M420">
+        <v>2.84</v>
+      </c>
+      <c r="N420">
+        <v>17.08</v>
+      </c>
+      <c r="O420">
+        <v>80.08</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15">
+      <c r="A421" t="s">
+        <v>434</v>
+      </c>
+      <c r="B421">
+        <v>2188</v>
+      </c>
+      <c r="C421">
+        <v>197</v>
+      </c>
+      <c r="D421">
+        <v>1346</v>
+      </c>
+      <c r="E421">
+        <v>645</v>
+      </c>
+      <c r="F421">
+        <v>2779</v>
+      </c>
+      <c r="G421">
+        <v>76</v>
+      </c>
+      <c r="H421">
+        <v>523</v>
+      </c>
+      <c r="I421">
+        <v>2180</v>
+      </c>
+      <c r="J421">
+        <v>9</v>
+      </c>
+      <c r="K421">
+        <v>61.52</v>
+      </c>
+      <c r="L421">
+        <v>29.48</v>
+      </c>
+      <c r="M421">
+        <v>2.73</v>
+      </c>
+      <c r="N421">
+        <v>18.82</v>
+      </c>
+      <c r="O421">
+        <v>78.45</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15">
+      <c r="A422" t="s">
+        <v>435</v>
+      </c>
+      <c r="B422">
+        <v>2197</v>
+      </c>
+      <c r="C422">
+        <v>188</v>
+      </c>
+      <c r="D422">
+        <v>1343</v>
+      </c>
+      <c r="E422">
+        <v>666</v>
+      </c>
+      <c r="F422">
+        <v>2779</v>
+      </c>
+      <c r="G422">
+        <v>79</v>
+      </c>
+      <c r="H422">
+        <v>524</v>
+      </c>
+      <c r="I422">
+        <v>2176</v>
+      </c>
+      <c r="J422">
+        <v>8.56</v>
+      </c>
+      <c r="K422">
+        <v>61.13</v>
+      </c>
+      <c r="L422">
+        <v>30.31</v>
+      </c>
+      <c r="M422">
+        <v>2.84</v>
+      </c>
+      <c r="N422">
+        <v>18.86</v>
+      </c>
+      <c r="O422">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15">
+      <c r="A423" t="s">
+        <v>436</v>
+      </c>
+      <c r="B423">
+        <v>2185</v>
+      </c>
+      <c r="C423">
+        <v>185</v>
+      </c>
+      <c r="D423">
+        <v>1333</v>
+      </c>
+      <c r="E423">
+        <v>667</v>
+      </c>
+      <c r="F423">
+        <v>2780</v>
+      </c>
+      <c r="G423">
+        <v>78</v>
+      </c>
+      <c r="H423">
+        <v>480</v>
+      </c>
+      <c r="I423">
+        <v>2222</v>
+      </c>
+      <c r="J423">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="K423">
+        <v>61.01</v>
+      </c>
+      <c r="L423">
+        <v>30.53</v>
+      </c>
+      <c r="M423">
+        <v>2.81</v>
+      </c>
+      <c r="N423">
+        <v>17.27</v>
+      </c>
+      <c r="O423">
+        <v>79.93000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
